--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.48</v>
@@ -682,22 +682,22 @@
         <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -718,7 +718,7 @@
         <v>3.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
         <v>2.94</v>
@@ -811,13 +811,13 @@
         <v>2.92</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>2.78</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
         <v>1.43</v>
@@ -826,7 +826,7 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -835,79 +835,79 @@
         <v>1.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
         <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>46</v>
       </c>
       <c r="AK3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>40</v>
       </c>
-      <c r="AL3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>38</v>
-      </c>
       <c r="AO3" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I5" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.32</v>
@@ -1096,34 +1096,34 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,100 +1207,100 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="n">
         <v>15</v>
       </c>
-      <c r="AE6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1309,10 +1309,10 @@
         <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
@@ -1366,13 +1366,13 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
@@ -1381,55 +1381,55 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
         <v>25</v>
       </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>27</v>
-      </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,67 +1477,67 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
         <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="O8" t="n">
         <v>1.52</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>2.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="T8" t="n">
         <v>2.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
         <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.7</v>
       </c>
-      <c r="I9" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.82</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="n">
         <v>16</v>
       </c>
-      <c r="AG9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -1750,13 +1750,13 @@
         <v>3.35</v>
       </c>
       <c r="G10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1765,46 +1765,46 @@
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
         <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
         <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>18.5</v>
@@ -1825,10 +1825,10 @@
         <v>40</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>25</v>
@@ -1837,10 +1837,10 @@
         <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
         <v>80</v>
@@ -1849,7 +1849,7 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
         <v>40</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H11" t="n">
         <v>4.4</v>
@@ -1897,7 +1897,7 @@
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1930,7 +1930,7 @@
         <v>1.99</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
         <v>2.02</v>
@@ -1939,10 +1939,10 @@
         <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="n">
         <v>140</v>
@@ -1951,40 +1951,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
         <v>95</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="G12" t="n">
         <v>3.1</v>
@@ -2026,7 +2026,7 @@
         <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
@@ -2041,46 +2041,46 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
         <v>15.5</v>
@@ -2089,40 +2089,40 @@
         <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -2176,13 +2176,13 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
         <v>2.14</v>
@@ -2227,7 +2227,7 @@
         <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2239,25 +2239,25 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2290,22 +2290,22 @@
         <v>2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
@@ -2329,46 +2329,46 @@
         <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
         <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
         <v>20</v>
@@ -2377,7 +2377,7 @@
         <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2392,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
         <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L15" t="n">
         <v>1.48</v>
@@ -2455,7 +2455,7 @@
         <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
@@ -2464,13 +2464,13 @@
         <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W15" t="n">
         <v>1.48</v>
@@ -2482,7 +2482,7 @@
         <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>55</v>
@@ -2494,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>980</v>
@@ -2503,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>19.5</v>
@@ -2566,28 +2566,28 @@
         <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
         <v>1.7</v>
@@ -2605,13 +2605,13 @@
         <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
         <v>1.89</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="G17" t="n">
         <v>1.58</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.45</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P17" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R17" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2752,13 +2752,13 @@
         <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC17" t="n">
         <v>970</v>
@@ -2788,7 +2788,7 @@
         <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2827,100 +2827,100 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
         <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G19" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.74</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
         <v>24</v>
@@ -3025,10 +3025,10 @@
         <v>44</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
@@ -3037,37 +3037,37 @@
         <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3097,88 +3097,88 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
@@ -3187,10 +3187,10 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,55 +3232,55 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="G21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H21" t="n">
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W21" t="n">
         <v>2.38</v>
@@ -3292,34 +3292,34 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>970</v>
       </c>
       <c r="AH21" t="n">
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
         <v>970</v>
@@ -3331,13 +3331,13 @@
         <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G22" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="I22" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3391,64 +3391,64 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="W22" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -3457,10 +3457,10 @@
         <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
@@ -3469,10 +3469,10 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H23" t="n">
         <v>6.6</v>
@@ -3514,10 +3514,10 @@
         <v>6.8</v>
       </c>
       <c r="J23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3526,7 +3526,7 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
@@ -3535,7 +3535,7 @@
         <v>2.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
         <v>1.55</v>
@@ -3547,13 +3547,13 @@
         <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V23" t="n">
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3565,7 +3565,7 @@
         <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
@@ -3577,7 +3577,7 @@
         <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="n">
         <v>10</v>
@@ -3586,13 +3586,13 @@
         <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>14.5</v>
@@ -3643,10 +3643,10 @@
         <v>2.52</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3655,13 +3655,13 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
@@ -3673,10 +3673,10 @@
         <v>1.92</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
@@ -3775,61 +3775,61 @@
         <v>2.74</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="I25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.15</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N25" t="n">
         <v>2.66</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.46</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="P25" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>2.14</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,13 +3838,13 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
@@ -3910,7 +3910,7 @@
         <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
         <v>4.5</v>
@@ -3946,7 +3946,7 @@
         <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="T26" t="n">
         <v>1.68</v>
@@ -3958,7 +3958,7 @@
         <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X26" t="n">
         <v>25</v>
@@ -4045,7 +4045,7 @@
         <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H27" t="n">
         <v>3.45</v>
@@ -4054,64 +4054,64 @@
         <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.36</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.42</v>
       </c>
       <c r="V27" t="n">
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="n">
         <v>80</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
         <v>19</v>
@@ -4120,7 +4120,7 @@
         <v>46</v>
       </c>
       <c r="AF27" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
@@ -4138,16 +4138,16 @@
         <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
         <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4180,10 +4180,10 @@
         <v>2.12</v>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H28" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
         <v>3.65</v>
@@ -4198,22 +4198,22 @@
         <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>2.36</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>1.62</v>
+        <v>2.36</v>
       </c>
       <c r="Q28" t="n">
         <v>1.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="n">
         <v>2.14</v>
@@ -4225,10 +4225,10 @@
         <v>2.58</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4318,7 +4318,7 @@
         <v>2.58</v>
       </c>
       <c r="H29" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I29" t="n">
         <v>3.4</v>
@@ -4327,7 +4327,7 @@
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
         <v>1.32</v>
@@ -4336,7 +4336,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
@@ -4345,7 +4345,7 @@
         <v>2.02</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
         <v>1.4</v>
@@ -4372,22 +4372,22 @@
         <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
         <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="n">
         <v>19.5</v>
@@ -4396,7 +4396,7 @@
         <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
         <v>48</v>
@@ -4411,13 +4411,13 @@
         <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
         <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4447,28 +4447,28 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="H30" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>4.2</v>
@@ -4480,19 +4480,19 @@
         <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R30" t="n">
         <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V30" t="n">
         <v>1.01</v>
@@ -4501,31 +4501,31 @@
         <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z30" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA30" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
         <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>14</v>
@@ -4540,19 +4540,19 @@
         <v>40</v>
       </c>
       <c r="AK30" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AL30" t="n">
         <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G31" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
         <v>2.74</v>
@@ -4600,13 +4600,13 @@
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O31" t="n">
         <v>1.43</v>
@@ -4615,7 +4615,7 @@
         <v>1.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
@@ -4654,7 +4654,7 @@
         <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
         <v>40</v>
@@ -4666,7 +4666,7 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
         <v>65</v>
@@ -4735,7 +4735,7 @@
         <v>4.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4750,7 +4750,7 @@
         <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
         <v>1.43</v>
@@ -4861,7 +4861,7 @@
         <v>4.6</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -4879,13 +4879,13 @@
         <v>5.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
         <v>2.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
         <v>1.59</v>
@@ -4897,7 +4897,7 @@
         <v>1.6</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
         <v>1.25</v>
@@ -4924,7 +4924,7 @@
         <v>12.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE33" t="n">
         <v>55</v>
@@ -4936,7 +4936,7 @@
         <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
         <v>60</v>
@@ -4996,10 +4996,10 @@
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
         <v>4.1</v>
@@ -5023,7 +5023,7 @@
         <v>1.81</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
         <v>3</v>
@@ -5035,7 +5035,7 @@
         <v>2.18</v>
       </c>
       <c r="V34" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W34" t="n">
         <v>1.72</v>
@@ -5053,7 +5053,7 @@
         <v>75</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC34" t="n">
         <v>10.5</v>
@@ -5065,7 +5065,7 @@
         <v>970</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG34" t="n">
         <v>13.5</v>
@@ -5080,7 +5080,7 @@
         <v>970</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AL34" t="n">
         <v>970</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H35" t="n">
         <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>3.65</v>
@@ -5146,13 +5146,13 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
@@ -5173,10 +5173,10 @@
         <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
         <v>970</v>
@@ -5185,16 +5185,16 @@
         <v>32</v>
       </c>
       <c r="AA35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
@@ -5206,7 +5206,7 @@
         <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI35" t="n">
         <v>70</v>
@@ -5263,10 +5263,10 @@
         <v>4.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I36" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J36" t="n">
         <v>4.5</v>
@@ -5281,43 +5281,43 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O36" t="n">
         <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S36" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T36" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U36" t="n">
         <v>2.58</v>
       </c>
       <c r="V36" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W36" t="n">
         <v>1.28</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA36" t="n">
         <v>19.5</v>
@@ -5335,7 +5335,7 @@
         <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="n">
         <v>17.5</v>
@@ -5344,10 +5344,10 @@
         <v>16</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ36" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK36" t="n">
         <v>44</v>
@@ -5362,7 +5362,7 @@
         <v>34</v>
       </c>
       <c r="AO36" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -5530,13 +5530,13 @@
         <v>3.95</v>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H38" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J38" t="n">
         <v>3.25</v>
@@ -5545,7 +5545,7 @@
         <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
@@ -5557,7 +5557,7 @@
         <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q38" t="n">
         <v>2.24</v>
@@ -5566,7 +5566,7 @@
         <v>1.26</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
         <v>1.98</v>
@@ -5575,7 +5575,7 @@
         <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W38" t="n">
         <v>1.29</v>
@@ -5602,7 +5602,7 @@
         <v>13</v>
       </c>
       <c r="AE38" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF38" t="n">
         <v>36</v>
@@ -5626,13 +5626,13 @@
         <v>90</v>
       </c>
       <c r="AM38" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN38" t="n">
         <v>95</v>
       </c>
       <c r="AO38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G39" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I39" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
         <v>3.45</v>
@@ -5686,34 +5686,34 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>1.45</v>
+        <v>2.62</v>
       </c>
       <c r="O39" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P39" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="R39" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V39" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5797,52 +5797,52 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I40" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J40" t="n">
         <v>3.95</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
         <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
         <v>2.38</v>
@@ -5854,19 +5854,19 @@
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Z40" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AA40" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AB40" t="n">
         <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
         <v>12.5</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -5932,58 +5932,58 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H41" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K41" t="n">
         <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="O41" t="n">
         <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="R41" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
         <v>4.8</v>
       </c>
       <c r="T41" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U41" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V41" t="n">
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="X41" t="n">
         <v>10.5</v>
@@ -5992,7 +5992,7 @@
         <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -670,19 +670,19 @@
         <v>7.6</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="I2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -700,7 +700,7 @@
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
         <v>1.36</v>
@@ -715,7 +715,7 @@
         <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="W2" t="n">
         <v>1.1</v>
@@ -814,10 +814,10 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>1.43</v>
@@ -826,13 +826,13 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -841,7 +841,7 @@
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.95</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
         <v>2.36</v>
@@ -1090,13 +1090,13 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
@@ -1111,7 +1111,7 @@
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
@@ -1123,7 +1123,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,13 +1210,13 @@
         <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1237,10 +1237,10 @@
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1255,10 +1255,10 @@
         <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1306,13 +1306,13 @@
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
         <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,94 +1342,94 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="I7" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AE7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>22</v>
-      </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.76</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.82</v>
-      </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
@@ -1519,37 +1519,37 @@
         <v>5.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="X8" t="n">
         <v>9.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="O9" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -1687,19 +1687,19 @@
         <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
@@ -1708,16 +1708,16 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO9" t="n">
         <v>120</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -1747,37 +1747,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
         <v>2.34</v>
@@ -1789,34 +1789,34 @@
         <v>4.6</v>
       </c>
       <c r="T10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.96</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
         <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
         <v>46</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>14.5</v>
@@ -1825,22 +1825,22 @@
         <v>40</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
         <v>80</v>
@@ -1849,7 +1849,7 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
         <v>40</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
@@ -1894,10 +1894,10 @@
         <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.42</v>
@@ -1912,16 +1912,16 @@
         <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
         <v>1.88</v>
@@ -1933,7 +1933,7 @@
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
         <v>16.5</v>
@@ -1945,22 +1945,22 @@
         <v>36</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1972,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
@@ -1984,10 +1984,10 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2026,10 +2026,10 @@
         <v>2.56</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>3.55</v>
@@ -2041,10 +2041,10 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2056,7 +2056,7 @@
         <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
         <v>1.7</v>
@@ -2065,7 +2065,7 @@
         <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
@@ -2080,13 +2080,13 @@
         <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
@@ -2107,7 +2107,7 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
@@ -2155,19 +2155,19 @@
         <v>2.78</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I13" t="n">
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2185,28 +2185,28 @@
         <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U13" t="n">
         <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>12.5</v>
@@ -2215,34 +2215,34 @@
         <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>40</v>
@@ -2254,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
         <v>40</v>
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
         <v>2.12</v>
@@ -2326,7 +2326,7 @@
         <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
         <v>1.81</v>
@@ -2335,16 +2335,16 @@
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>26</v>
@@ -2365,13 +2365,13 @@
         <v>42</v>
       </c>
       <c r="AF14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>19</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>20</v>
       </c>
       <c r="AI14" t="n">
         <v>65</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
         <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2446,31 +2446,31 @@
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
         <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
         <v>1.48</v>
@@ -2479,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
@@ -2488,10 +2488,10 @@
         <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.02</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.12</v>
-      </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.28</v>
@@ -2581,22 +2581,22 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
         <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T16" t="n">
         <v>1.64</v>
@@ -2605,10 +2605,10 @@
         <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2623,7 +2623,7 @@
         <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>12</v>
@@ -2632,10 +2632,10 @@
         <v>18.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
         <v>14.5</v>
@@ -2647,10 +2647,10 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AL16" t="n">
         <v>38</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
         <v>38</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H17" t="n">
         <v>8</v>
@@ -2707,22 +2707,22 @@
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
         <v>2.32</v>
@@ -2737,7 +2737,7 @@
         <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V17" t="n">
         <v>1.09</v>
@@ -2827,34 +2827,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
         <v>1.7</v>
@@ -2863,10 +2863,10 @@
         <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
         <v>1.84</v>
@@ -2875,52 +2875,52 @@
         <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2962,85 +2962,85 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G19" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I19" t="n">
         <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.24</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
         <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
         <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
@@ -3049,19 +3049,19 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
         <v>26</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
         <v>13</v>
@@ -3097,91 +3097,91 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U20" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="G21" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I21" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3250,7 +3250,7 @@
         <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3262,10 +3262,10 @@
         <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R21" t="n">
         <v>1.33</v>
@@ -3274,16 +3274,16 @@
         <v>3.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3292,34 +3292,34 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="n">
         <v>970</v>
@@ -3334,10 +3334,10 @@
         <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>3.2</v>
       </c>
       <c r="H22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.42</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.44</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
@@ -3394,34 +3394,34 @@
         <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
         <v>2.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W22" t="n">
         <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
         <v>12.5</v>
@@ -3433,7 +3433,7 @@
         <v>32</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
@@ -3442,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
@@ -3454,7 +3454,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
         <v>55</v>
@@ -3466,13 +3466,13 @@
         <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN22" t="n">
         <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
@@ -3526,7 +3526,7 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
@@ -3541,10 +3541,10 @@
         <v>1.55</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
         <v>2.24</v>
@@ -3592,7 +3592,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK23" t="n">
         <v>14.5</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.5</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.52</v>
-      </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -3685,13 +3685,13 @@
         <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>13.5</v>
@@ -3712,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -3775,61 +3775,61 @@
         <v>2.74</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="K25" t="n">
         <v>3.15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O25" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="P25" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
         <v>1.47</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,13 +3838,13 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
@@ -3946,7 +3946,7 @@
         <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="T26" t="n">
         <v>1.68</v>
@@ -4045,19 +4045,19 @@
         <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.27</v>
@@ -4066,7 +4066,7 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="O27" t="n">
         <v>1.22</v>
@@ -4087,13 +4087,13 @@
         <v>1.61</v>
       </c>
       <c r="U27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V27" t="n">
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
         <v>25</v>
@@ -4183,16 +4183,16 @@
         <v>2.36</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
         <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>60</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.24</v>
@@ -4201,7 +4201,7 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.17</v>
@@ -4219,13 +4219,13 @@
         <v>2.14</v>
       </c>
       <c r="T28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="V28" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W28" t="n">
         <v>1.73</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G29" t="n">
         <v>2.58</v>
       </c>
       <c r="H29" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
         <v>3.4</v>
@@ -4336,22 +4336,22 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="R29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
         <v>1.64</v>
@@ -4369,7 +4369,7 @@
         <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
         <v>24</v>
@@ -4378,7 +4378,7 @@
         <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
         <v>8.800000000000001</v>
@@ -4390,22 +4390,22 @@
         <v>36</v>
       </c>
       <c r="AF29" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
         <v>38</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -4450,7 +4450,7 @@
         <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H30" t="n">
         <v>2.76</v>
@@ -4537,13 +4537,13 @@
         <v>970</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK30" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM30" t="n">
         <v>75</v>
@@ -4552,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H31" t="n">
         <v>2.74</v>
@@ -4633,7 +4633,7 @@
         <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="G32" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="H32" t="n">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
         <v>3.55</v>
@@ -4747,7 +4747,7 @@
         <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
         <v>1.75</v>
@@ -4759,16 +4759,16 @@
         <v>2.88</v>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U32" t="n">
         <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W32" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
@@ -4777,40 +4777,40 @@
         <v>17</v>
       </c>
       <c r="Z32" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG32" t="n">
         <v>14</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
         <v>18.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AJ32" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
         <v>40</v>
@@ -4819,10 +4819,10 @@
         <v>85</v>
       </c>
       <c r="AN32" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AO32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4885,7 +4885,7 @@
         <v>2.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
         <v>1.59</v>
@@ -4909,19 +4909,19 @@
         <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AA33" t="n">
         <v>120</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
         <v>22</v>
@@ -4930,16 +4930,16 @@
         <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
         <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
         <v>23</v>
@@ -4948,13 +4948,13 @@
         <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
         <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO33" t="n">
         <v>970</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G34" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
         <v>3.45</v>
@@ -5023,22 +5023,22 @@
         <v>1.81</v>
       </c>
       <c r="R34" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S34" t="n">
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U34" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V34" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W34" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
@@ -5050,7 +5050,7 @@
         <v>970</v>
       </c>
       <c r="AA34" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB34" t="n">
         <v>13.5</v>
@@ -5089,7 +5089,7 @@
         <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5149,7 +5149,7 @@
         <v>3.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
         <v>1.87</v>
@@ -5170,7 +5170,7 @@
         <v>2.02</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
         <v>2.02</v>
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
@@ -5206,7 +5206,7 @@
         <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI35" t="n">
         <v>70</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I36" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J36" t="n">
         <v>4.5</v>
@@ -5275,55 +5275,55 @@
         <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="S36" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="T36" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="U36" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="V36" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W36" t="n">
         <v>1.28</v>
       </c>
       <c r="X36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA36" t="n">
         <v>19.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
         <v>10.5</v>
@@ -5344,25 +5344,25 @@
         <v>16</v>
       </c>
       <c r="AI36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
         <v>90</v>
       </c>
       <c r="AK36" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO36" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="37">
@@ -5545,7 +5545,7 @@
         <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
@@ -5581,13 +5581,13 @@
         <v>1.29</v>
       </c>
       <c r="X38" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y38" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA38" t="n">
         <v>32</v>
@@ -5614,7 +5614,7 @@
         <v>25</v>
       </c>
       <c r="AI38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
         <v>120</v>
@@ -5665,7 +5665,7 @@
         <v>1.97</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>4.6</v>
@@ -5680,40 +5680,40 @@
         <v>3.45</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O39" t="n">
         <v>1.52</v>
       </c>
       <c r="P39" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="T39" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U39" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V39" t="n">
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G40" t="n">
         <v>6.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I40" t="n">
         <v>1.72</v>
@@ -5827,10 +5827,10 @@
         <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R40" t="n">
         <v>1.29</v>
@@ -5854,37 +5854,37 @@
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="41">
@@ -5935,13 +5935,13 @@
         <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J41" t="n">
         <v>2.98</v>
@@ -5950,13 +5950,13 @@
         <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="O41" t="n">
         <v>1.53</v>
@@ -5965,16 +5965,16 @@
         <v>1.52</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="R41" t="n">
         <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T41" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U41" t="n">
         <v>1.72</v>
@@ -5983,7 +5983,7 @@
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
         <v>10.5</v>
@@ -6025,7 +6025,7 @@
         <v>34</v>
       </c>
       <c r="AK41" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G2" t="n">
         <v>12.5</v>
@@ -676,7 +676,7 @@
         <v>1.38</v>
       </c>
       <c r="I2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -685,7 +685,7 @@
         <v>6.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,7 +697,7 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
         <v>1.83</v>
@@ -715,10 +715,10 @@
         <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>3.35</v>
@@ -826,10 +826,10 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
         <v>1.62</v>
@@ -838,7 +838,7 @@
         <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
         <v>4.4</v>
@@ -850,37 +850,37 @@
         <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -892,22 +892,22 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
         <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -943,16 +943,16 @@
         <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.42</v>
@@ -967,7 +967,7 @@
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
         <v>2.08</v>
@@ -985,7 +985,7 @@
         <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
         <v>2.24</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G5" t="n">
         <v>4.3</v>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1123,7 +1123,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1216,7 +1216,7 @@
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1225,7 +1225,7 @@
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
@@ -1372,28 +1372,28 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
         <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
@@ -1405,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G8" t="n">
         <v>2.92</v>
@@ -1501,7 +1501,7 @@
         <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
         <v>1.54</v>
@@ -1510,7 +1510,7 @@
         <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
@@ -1519,7 +1519,7 @@
         <v>5.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
         <v>1.74</v>
@@ -1528,7 +1528,7 @@
         <v>1.45</v>
       </c>
       <c r="W8" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
         <v>9.6</v>
@@ -1549,7 +1549,7 @@
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G9" t="n">
         <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P9" t="n">
         <v>1.43</v>
@@ -1663,7 +1663,7 @@
         <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>7.8</v>
@@ -1753,16 +1753,16 @@
         <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I10" t="n">
         <v>2.56</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.43</v>
@@ -1774,13 +1774,13 @@
         <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1792,52 +1792,52 @@
         <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W10" t="n">
         <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
         <v>40</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>60</v>
@@ -1849,7 +1849,7 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>40</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
         <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
@@ -1903,40 +1903,40 @@
         <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.04</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
         <v>16</v>
@@ -1960,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1972,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
@@ -1984,7 +1984,7 @@
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2023,13 +2023,13 @@
         <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>3.55</v>
@@ -2041,7 +2041,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2053,7 +2053,7 @@
         <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2062,10 +2062,10 @@
         <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
@@ -2086,16 +2086,16 @@
         <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2182,61 +2182,61 @@
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
         <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
         <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2251,13 +2251,13 @@
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2305,7 +2305,7 @@
         <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
@@ -2317,16 +2317,16 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
         <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
         <v>1.81</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -2371,13 +2371,13 @@
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
         <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2428,46 +2428,46 @@
         <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
         <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2476,7 +2476,7 @@
         <v>1.48</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -2491,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2527,7 +2527,7 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G16" t="n">
         <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2590,7 +2590,7 @@
         <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
         <v>1.49</v>
@@ -2605,10 +2605,10 @@
         <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2716,7 +2716,7 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
@@ -2758,7 +2758,7 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.6</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
         <v>970</v>
@@ -2845,7 +2845,7 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
         <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z19" t="n">
         <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
         <v>4.8</v>
       </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
         <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.27</v>
       </c>
-      <c r="S20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W20" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,43 +3163,43 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="W21" t="n">
-        <v>2.28</v>
+        <v>2.88</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3292,52 +3292,52 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AA21" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
         <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG21" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG21" t="n">
-        <v>970</v>
-      </c>
       <c r="AH21" t="n">
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>3.2</v>
       </c>
       <c r="H22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.42</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
@@ -3406,28 +3406,28 @@
         <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
         <v>2.48</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W22" t="n">
         <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA22" t="n">
         <v>32</v>
@@ -3448,7 +3448,7 @@
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -3523,7 +3523,7 @@
         <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>5.1</v>
@@ -3538,10 +3538,10 @@
         <v>1.68</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
         <v>1.77</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
@@ -3670,13 +3670,13 @@
         <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
         <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
@@ -3688,7 +3688,7 @@
         <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3712,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="H26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.28</v>
@@ -3946,25 +3946,25 @@
         <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="T26" t="n">
         <v>1.68</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
         <v>970</v>
@@ -3976,13 +3976,13 @@
         <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
         <v>14.5</v>
@@ -3994,7 +3994,7 @@
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -4180,7 +4180,7 @@
         <v>2.12</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H28" t="n">
         <v>3.15</v>
@@ -4192,10 +4192,10 @@
         <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -4228,7 +4228,7 @@
         <v>1.37</v>
       </c>
       <c r="W28" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4318,7 +4318,7 @@
         <v>2.58</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="I29" t="n">
         <v>3.4</v>
@@ -4336,7 +4336,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G30" t="n">
         <v>2.82</v>
@@ -4456,7 +4456,7 @@
         <v>2.76</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J30" t="n">
         <v>3.4</v>
@@ -4477,10 +4477,10 @@
         <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
         <v>1.43</v>
@@ -4594,7 +4594,7 @@
         <v>3.05</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
@@ -4612,10 +4612,10 @@
         <v>1.43</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
@@ -4645,7 +4645,7 @@
         <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB31" t="n">
         <v>11</v>
@@ -4657,7 +4657,7 @@
         <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
@@ -4669,13 +4669,13 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
         <v>55</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AL31" t="n">
         <v>60</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G32" t="n">
         <v>2.74</v>
@@ -4765,7 +4765,7 @@
         <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
         <v>1.58</v>
@@ -4882,7 +4882,7 @@
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q33" t="n">
         <v>1.58</v>
@@ -4936,13 +4936,13 @@
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
         <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
         <v>3.65</v>
@@ -5005,7 +5005,7 @@
         <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5038,7 +5038,7 @@
         <v>1.37</v>
       </c>
       <c r="W34" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H35" t="n">
         <v>4.5</v>
@@ -5137,7 +5137,7 @@
         <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.42</v>
@@ -5158,7 +5158,7 @@
         <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
         <v>3.75</v>
@@ -5170,16 +5170,16 @@
         <v>2.02</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z35" t="n">
         <v>32</v>
@@ -5188,22 +5188,22 @@
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
         <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
         <v>20</v>
@@ -5215,7 +5215,7 @@
         <v>23</v>
       </c>
       <c r="AK35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
         <v>40</v>
@@ -5287,10 +5287,10 @@
         <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
         <v>1.74</v>
@@ -5311,7 +5311,7 @@
         <v>1.28</v>
       </c>
       <c r="X36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y36" t="n">
         <v>14</v>
@@ -5320,10 +5320,10 @@
         <v>14</v>
       </c>
       <c r="AA36" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC36" t="n">
         <v>10.5</v>
@@ -5362,7 +5362,7 @@
         <v>32</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="37">
@@ -5665,55 +5665,55 @@
         <v>1.97</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
         <v>4.6</v>
       </c>
       <c r="I39" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O39" t="n">
         <v>1.52</v>
       </c>
       <c r="P39" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S39" t="n">
         <v>4.8</v>
       </c>
       <c r="T39" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U39" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G40" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H40" t="n">
         <v>1.68</v>
       </c>
       <c r="I40" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J40" t="n">
         <v>3.95</v>
@@ -5836,16 +5836,16 @@
         <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T40" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V40" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W40" t="n">
         <v>1.18</v>
@@ -5854,37 +5854,37 @@
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB40" t="n">
         <v>20</v>
       </c>
-      <c r="AB40" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF40" t="n">
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ40" t="n">
         <v>1000</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -5956,13 +5956,13 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O41" t="n">
         <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q41" t="n">
         <v>2.6</v>
@@ -5986,7 +5986,7 @@
         <v>1.8</v>
       </c>
       <c r="X41" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y41" t="n">
         <v>970</v>
@@ -6004,7 +6004,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6016,13 +6016,13 @@
         <v>14</v>
       </c>
       <c r="AH41" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI41" t="n">
         <v>130</v>
       </c>
       <c r="AJ41" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK41" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G2" t="n">
         <v>12.5</v>
@@ -676,16 +676,16 @@
         <v>1.38</v>
       </c>
       <c r="I2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>6.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,10 +694,10 @@
         <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
         <v>1.83</v>
@@ -715,7 +715,7 @@
         <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W2" t="n">
         <v>1.09</v>
@@ -805,31 +805,31 @@
         <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
         <v>1.62</v>
@@ -850,7 +850,7 @@
         <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
         <v>1.65</v>
@@ -874,10 +874,10 @@
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
         <v>15.5</v>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +946,7 @@
         <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
@@ -985,7 +985,7 @@
         <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
         <v>2.24</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="I5" t="n">
         <v>2.36</v>
@@ -1096,13 +1096,13 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1.83</v>
@@ -1123,7 +1123,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G6" t="n">
         <v>2.48</v>
@@ -1225,7 +1225,7 @@
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1234,13 +1234,13 @@
         <v>2.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1255,10 +1255,10 @@
         <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1360,7 +1360,7 @@
         <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1369,31 +1369,31 @@
         <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
@@ -1405,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
@@ -1429,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1630,7 +1630,7 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1765,13 +1765,13 @@
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.45</v>
@@ -1780,7 +1780,7 @@
         <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1792,25 +1792,25 @@
         <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
         <v>1.64</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1822,7 +1822,7 @@
         <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
         <v>3.75</v>
       </c>
       <c r="T11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.96</v>
       </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
         <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2044,28 +2044,28 @@
         <v>3.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
         <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
         <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G13" t="n">
         <v>3.05</v>
@@ -2161,13 +2161,13 @@
         <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2179,37 +2179,37 @@
         <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
         <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X13" t="n">
         <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>23</v>
@@ -2218,43 +2218,43 @@
         <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
         <v>34</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G14" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>3.4</v>
@@ -2311,19 +2311,19 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
         <v>3.95</v>
@@ -2335,19 +2335,19 @@
         <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -2362,25 +2362,25 @@
         <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
         <v>18.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.96</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.05</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
@@ -2449,85 +2449,85 @@
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R15" t="n">
         <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
         <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
         <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
         <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.95</v>
@@ -2581,13 +2581,13 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
         <v>1.69</v>
@@ -2596,7 +2596,7 @@
         <v>1.49</v>
       </c>
       <c r="S16" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
         <v>1.64</v>
@@ -2605,7 +2605,7 @@
         <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
         <v>1.98</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
         <v>38</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="G17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
         <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.48</v>
@@ -2716,7 +2716,7 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
@@ -2734,16 +2734,16 @@
         <v>4.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V17" t="n">
         <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2869,10 +2869,10 @@
         <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
         <v>1.44</v>
@@ -2971,7 +2971,7 @@
         <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2980,31 +2980,31 @@
         <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
         <v>2.28</v>
@@ -3016,7 +3016,7 @@
         <v>2.06</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>24</v>
@@ -3058,10 +3058,10 @@
         <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
         <v>10.5</v>
@@ -3100,7 +3100,7 @@
         <v>1.98</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3112,7 +3112,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3124,7 +3124,7 @@
         <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
         <v>1.75</v>
@@ -3148,7 +3148,7 @@
         <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X20" t="n">
         <v>14</v>
@@ -3169,13 +3169,13 @@
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="I21" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
         <v>3.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3292,7 +3292,7 @@
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
@@ -3307,10 +3307,10 @@
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
@@ -3319,13 +3319,13 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AJ21" t="n">
         <v>13.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
         <v>970</v>
@@ -3337,7 +3337,7 @@
         <v>8.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -3373,10 +3373,10 @@
         <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
@@ -3397,19 +3397,19 @@
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
         <v>2.48</v>
@@ -3421,13 +3421,13 @@
         <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
         <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA22" t="n">
         <v>32</v>
@@ -3448,22 +3448,22 @@
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK22" t="n">
         <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
         <v>65</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I23" t="n">
         <v>6.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.8</v>
       </c>
       <c r="J23" t="n">
         <v>4.5</v>
@@ -3526,7 +3526,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
@@ -3553,7 +3553,7 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3574,22 +3574,22 @@
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>80</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
         <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
         <v>14.5</v>
@@ -3604,7 +3604,7 @@
         <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO23" t="n">
         <v>75</v>
@@ -3646,7 +3646,7 @@
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3661,37 +3661,37 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
         <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
         <v>13.5</v>
@@ -3736,13 +3736,13 @@
         <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>2.78</v>
       </c>
       <c r="K25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
@@ -3799,31 +3799,31 @@
         <v>2.64</v>
       </c>
       <c r="O25" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
         <v>5.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X25" t="n">
         <v>9.4</v>
@@ -3910,22 +3910,22 @@
         <v>1.75</v>
       </c>
       <c r="G26" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
         <v>5.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3940,7 +3940,7 @@
         <v>2.18</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
         <v>1.46</v>
@@ -3958,7 +3958,7 @@
         <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X26" t="n">
         <v>24</v>
@@ -4051,13 +4051,13 @@
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.27</v>
@@ -4072,7 +4072,7 @@
         <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q27" t="n">
         <v>1.66</v>
@@ -4084,7 +4084,7 @@
         <v>2.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="U27" t="n">
         <v>2.34</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G28" t="n">
         <v>2.34</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
         <v>3.7</v>
@@ -4192,7 +4192,7 @@
         <v>3.65</v>
       </c>
       <c r="K28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4204,25 +4204,25 @@
         <v>4.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R28" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S28" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="T28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="V28" t="n">
         <v>1.37</v>
@@ -4321,10 +4321,10 @@
         <v>2.96</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>3.9</v>
@@ -4342,7 +4342,7 @@
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
         <v>1.81</v>
@@ -4360,7 +4360,7 @@
         <v>2.26</v>
       </c>
       <c r="V29" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W29" t="n">
         <v>1.63</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="H30" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -4471,10 +4471,10 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>2.08</v>
@@ -4486,13 +4486,13 @@
         <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U30" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
         <v>1.01</v>
@@ -4513,7 +4513,7 @@
         <v>55</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC30" t="n">
         <v>9.800000000000001</v>
@@ -4531,13 +4531,13 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="n">
         <v>29</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G31" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H31" t="n">
         <v>2.74</v>
       </c>
       <c r="I31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>3.2</v>
@@ -4600,13 +4600,13 @@
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O31" t="n">
         <v>1.43</v>
@@ -4657,10 +4657,10 @@
         <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -4723,7 +4723,7 @@
         <v>2.74</v>
       </c>
       <c r="H32" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I32" t="n">
         <v>3.05</v>
@@ -4732,10 +4732,10 @@
         <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
@@ -4744,7 +4744,7 @@
         <v>4.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
         <v>2.1</v>
@@ -4756,10 +4756,10 @@
         <v>1.43</v>
       </c>
       <c r="S32" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T32" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
         <v>2.28</v>
@@ -4855,10 +4855,10 @@
         <v>1.79</v>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -4867,16 +4867,16 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -4885,16 +4885,16 @@
         <v>2.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R33" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S33" t="n">
         <v>2.42</v>
       </c>
       <c r="T33" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U33" t="n">
         <v>2.34</v>
@@ -4903,7 +4903,7 @@
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X33" t="n">
         <v>970</v>
@@ -4924,7 +4924,7 @@
         <v>11</v>
       </c>
       <c r="AD33" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
         <v>55</v>
@@ -4990,13 +4990,13 @@
         <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
         <v>3.45</v>
@@ -5005,7 +5005,7 @@
         <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5035,10 +5035,10 @@
         <v>2.24</v>
       </c>
       <c r="V34" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
@@ -5065,7 +5065,7 @@
         <v>970</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
         <v>13.5</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="G35" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H35" t="n">
         <v>4.5</v>
@@ -5140,10 +5140,10 @@
         <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
         <v>3.6</v>
@@ -5152,7 +5152,7 @@
         <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
@@ -5170,49 +5170,49 @@
         <v>2.02</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH35" t="n">
         <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
@@ -5263,16 +5263,16 @@
         <v>4.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I36" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.28</v>
@@ -5293,7 +5293,7 @@
         <v>1.53</v>
       </c>
       <c r="R36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
         <v>2.32</v>
@@ -5305,13 +5305,13 @@
         <v>2.72</v>
       </c>
       <c r="V36" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y36" t="n">
         <v>14</v>
@@ -5320,7 +5320,7 @@
         <v>14</v>
       </c>
       <c r="AA36" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB36" t="n">
         <v>25</v>
@@ -5338,10 +5338,10 @@
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI36" t="n">
         <v>23</v>
@@ -5350,16 +5350,16 @@
         <v>90</v>
       </c>
       <c r="AK36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>60</v>
       </c>
       <c r="AN36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
         <v>7.2</v>
@@ -5395,19 +5395,19 @@
         <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5530,10 +5530,10 @@
         <v>3.95</v>
       </c>
       <c r="G38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I38" t="n">
         <v>2.16</v>
@@ -5542,7 +5542,7 @@
         <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5578,13 +5578,13 @@
         <v>1.86</v>
       </c>
       <c r="W38" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X38" t="n">
         <v>13.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z38" t="n">
         <v>15</v>
@@ -5665,7 +5665,7 @@
         <v>1.97</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>4.6</v>
@@ -5680,7 +5680,7 @@
         <v>3.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
         <v>1.1</v>
@@ -5707,7 +5707,7 @@
         <v>2.12</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V39" t="n">
         <v>1.25</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I40" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
         <v>4.2</v>
@@ -5839,10 +5839,10 @@
         <v>3.95</v>
       </c>
       <c r="T40" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U40" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V40" t="n">
         <v>2.42</v>
@@ -5851,58 +5851,58 @@
         <v>1.18</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC40" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AA40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>10</v>
-      </c>
       <c r="AD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO40" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="41">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.38</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -730,13 +730,13 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="G3" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="n">
         <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="R3" t="n">
         <v>1.23</v>
@@ -850,22 +850,22 @@
         <v>1.88</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
         <v>8.6</v>
@@ -874,28 +874,28 @@
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK3" t="n">
         <v>36</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>38</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -946,13 +946,13 @@
         <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.42</v>
@@ -976,7 +976,7 @@
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
         <v>2.08</v>
@@ -985,13 +985,13 @@
         <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
         <v>2.24</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,22 +1015,22 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
         <v>2.36</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1105,7 +1105,7 @@
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
@@ -1114,7 +1114,7 @@
         <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
         <v>2.16</v>
@@ -1123,10 +1123,10 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1210,22 +1210,22 @@
         <v>2.28</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1240,7 +1240,7 @@
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1261,7 +1261,7 @@
         <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1270,7 +1270,7 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AB6" t="n">
         <v>8.800000000000001</v>
@@ -1279,7 +1279,7 @@
         <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>55</v>
@@ -1294,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
         <v>36</v>
@@ -1306,13 +1306,13 @@
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
         <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1348,13 +1348,13 @@
         <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I7" t="n">
         <v>1.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
         <v>4.5</v>
@@ -1366,10 +1366,10 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.89</v>
@@ -1381,7 +1381,7 @@
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.93</v>
@@ -1396,7 +1396,7 @@
         <v>1.17</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>8.4</v>
@@ -1405,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
@@ -1417,19 +1417,19 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8">
@@ -1483,49 +1483,49 @@
         <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="O8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.54</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
         <v>5.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
         <v>1.52</v>
@@ -1546,7 +1546,7 @@
         <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>13.5</v>
@@ -1615,7 +1615,7 @@
         <v>2.48</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
@@ -1627,31 +1627,31 @@
         <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O9" t="n">
         <v>1.61</v>
       </c>
       <c r="P9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="R9" t="n">
         <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
         <v>2.2</v>
@@ -1666,16 +1666,16 @@
         <v>1.56</v>
       </c>
       <c r="X9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
         <v>8.199999999999999</v>
@@ -1684,40 +1684,40 @@
         <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="AF9" t="n">
         <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>280</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>460</v>
       </c>
       <c r="AM9" t="n">
         <v>270</v>
       </c>
       <c r="AN9" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1774,40 +1774,40 @@
         <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
         <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.64</v>
       </c>
       <c r="W10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
         <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
         <v>38</v>
@@ -1837,7 +1837,7 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK10" t="n">
         <v>60</v>
@@ -1846,10 +1846,10 @@
         <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
         <v>32</v>
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.8</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
         <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
         <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
         <v>42</v>
@@ -1948,10 +1948,10 @@
         <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
@@ -1963,16 +1963,16 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
@@ -1981,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
         <v>13.5</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G12" t="n">
         <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
@@ -2035,19 +2035,19 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
         <v>1.88</v>
@@ -2062,31 +2062,31 @@
         <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
         <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
@@ -2098,28 +2098,28 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.05</v>
@@ -2176,7 +2176,7 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
         <v>1.39</v>
@@ -2185,37 +2185,37 @@
         <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.5</v>
       </c>
-      <c r="W13" t="n">
-        <v>1.49</v>
-      </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>340</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2224,10 +2224,10 @@
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2251,13 +2251,13 @@
         <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2290,19 +2290,19 @@
         <v>2.56</v>
       </c>
       <c r="G14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.39</v>
@@ -2320,7 +2320,7 @@
         <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R14" t="n">
         <v>1.31</v>
@@ -2332,7 +2332,7 @@
         <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
@@ -2347,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -2356,19 +2356,19 @@
         <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
         <v>18.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>19.5</v>
@@ -2377,22 +2377,22 @@
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="AN14" t="n">
         <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G15" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H15" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2446,16 +2446,16 @@
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
         <v>1.24</v>
@@ -2464,7 +2464,7 @@
         <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
         <v>1.94</v>
@@ -2473,13 +2473,13 @@
         <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
         <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>19</v>
@@ -2506,7 +2506,7 @@
         <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
@@ -2560,10 +2560,10 @@
         <v>1.94</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>4.2</v>
@@ -2575,31 +2575,31 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
         <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S16" t="n">
         <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.36</v>
@@ -2608,7 +2608,7 @@
         <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
@@ -2632,7 +2632,7 @@
         <v>18.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="n">
         <v>16.5</v>
@@ -2644,7 +2644,7 @@
         <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
         <v>27</v>
@@ -2656,7 +2656,7 @@
         <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
         <v>11</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I17" t="n">
         <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.48</v>
@@ -2716,7 +2716,7 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
@@ -2743,7 +2743,7 @@
         <v>1.09</v>
       </c>
       <c r="W17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2761,7 +2761,7 @@
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2833,7 +2833,7 @@
         <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I18" t="n">
         <v>3.25</v>
@@ -2845,7 +2845,7 @@
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2857,10 +2857,10 @@
         <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.26</v>
@@ -2869,7 +2869,7 @@
         <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
         <v>1.98</v>
@@ -2881,7 +2881,7 @@
         <v>1.52</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2902,28 +2902,28 @@
         <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G19" t="n">
         <v>1.94</v>
@@ -2971,7 +2971,7 @@
         <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2998,16 +2998,16 @@
         <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
         <v>1.25</v>
@@ -3016,10 +3016,10 @@
         <v>2.06</v>
       </c>
       <c r="X19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="n">
         <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>24</v>
       </c>
       <c r="Z19" t="n">
         <v>38</v>
@@ -3067,7 +3067,7 @@
         <v>10.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="n">
         <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3121,25 +3121,25 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
         <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U20" t="n">
         <v>1.92</v>
@@ -3148,13 +3148,13 @@
         <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X20" t="n">
         <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>18</v>
@@ -3178,7 +3178,7 @@
         <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -3193,13 +3193,13 @@
         <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H21" t="n">
         <v>7.2</v>
@@ -3244,13 +3244,13 @@
         <v>8.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3283,61 +3283,61 @@
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="AF21" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="AJ21" t="n">
         <v>13.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
         <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
@@ -3385,13 +3385,13 @@
         <v>3.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3400,28 +3400,28 @@
         <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
         <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T22" t="n">
         <v>1.64</v>
       </c>
       <c r="U22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W22" t="n">
         <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>12.5</v>
@@ -3457,7 +3457,7 @@
         <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
         <v>32</v>
@@ -3508,10 +3508,10 @@
         <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J23" t="n">
         <v>4.5</v>
@@ -3532,16 +3532,16 @@
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
         <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
         <v>1.77</v>
@@ -3559,7 +3559,7 @@
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z23" t="n">
         <v>55</v>
@@ -3571,10 +3571,10 @@
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
         <v>80</v>
@@ -3583,16 +3583,16 @@
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK23" t="n">
         <v>14.5</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
@@ -3670,28 +3670,28 @@
         <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S24" t="n">
         <v>3.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
         <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>13.5</v>
@@ -3700,7 +3700,7 @@
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="n">
         <v>11.5</v>
@@ -3724,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
         <v>34</v>
@@ -3739,7 +3739,7 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
         <v>3.05</v>
@@ -3781,31 +3781,31 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
         <v>2.64</v>
       </c>
       <c r="O25" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3814,16 +3814,16 @@
         <v>5.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
         <v>9.4</v>
@@ -3850,7 +3850,7 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
         <v>1000</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G26" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.85</v>
@@ -3925,7 +3925,7 @@
         <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3952,16 +3952,16 @@
         <v>1.68</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
         <v>2.08</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
         <v>970</v>
@@ -3973,34 +3973,34 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
         <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL26" t="n">
         <v>970</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4066,7 +4066,7 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.22</v>
@@ -4087,7 +4087,7 @@
         <v>1.67</v>
       </c>
       <c r="U27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V27" t="n">
         <v>1.35</v>
@@ -4099,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="n">
         <v>36</v>
@@ -4108,13 +4108,13 @@
         <v>80</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
         <v>9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>46</v>
@@ -4123,10 +4123,10 @@
         <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
         <v>60</v>
@@ -4135,19 +4135,19 @@
         <v>32</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AN27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G28" t="n">
         <v>2.34</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I28" t="n">
         <v>3.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4315,16 +4315,16 @@
         <v>2.3</v>
       </c>
       <c r="G29" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H29" t="n">
         <v>2.96</v>
       </c>
       <c r="I29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>3.9</v>
@@ -4342,7 +4342,7 @@
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
         <v>1.81</v>
@@ -4360,10 +4360,10 @@
         <v>2.26</v>
       </c>
       <c r="V29" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X29" t="n">
         <v>17.5</v>
@@ -4408,13 +4408,13 @@
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>30</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G30" t="n">
         <v>2.58</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
         <v>3.55</v>
@@ -4510,7 +4510,7 @@
         <v>25</v>
       </c>
       <c r="AA30" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="n">
         <v>13.5</v>
@@ -4519,7 +4519,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
         <v>970</v>
@@ -4543,16 +4543,16 @@
         <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="n">
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -4585,22 +4585,22 @@
         <v>2.68</v>
       </c>
       <c r="G31" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -4615,13 +4615,13 @@
         <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="T31" t="n">
         <v>1.91</v>
@@ -4633,7 +4633,7 @@
         <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H32" t="n">
         <v>2.76</v>
@@ -4735,13 +4735,13 @@
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
         <v>1.26</v>
@@ -4753,19 +4753,19 @@
         <v>1.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
         <v>2.9</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W32" t="n">
         <v>1.58</v>
@@ -4801,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
         <v>970</v>
@@ -4816,7 +4816,7 @@
         <v>40</v>
       </c>
       <c r="AM32" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="n">
         <v>21</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="G33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -4870,13 +4870,13 @@
         <v>4.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -4888,31 +4888,31 @@
         <v>1.59</v>
       </c>
       <c r="R33" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S33" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T33" t="n">
         <v>1.64</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y33" t="n">
         <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AA33" t="n">
         <v>120</v>
@@ -4921,13 +4921,13 @@
         <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
         <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
         <v>970</v>
@@ -4936,13 +4936,13 @@
         <v>11</v>
       </c>
       <c r="AH33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>970</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>22</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -4951,7 +4951,7 @@
         <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN33" t="n">
         <v>9.4</v>
@@ -4990,7 +4990,7 @@
         <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
@@ -4999,25 +4999,25 @@
         <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
         <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" t="n">
         <v>1.81</v>
@@ -5044,16 +5044,16 @@
         <v>21</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="AB34" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
         <v>10.5</v>
@@ -5068,7 +5068,7 @@
         <v>18.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>21</v>
@@ -5077,19 +5077,19 @@
         <v>970</v>
       </c>
       <c r="AJ34" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AL34" t="n">
         <v>970</v>
       </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G35" t="n">
         <v>1.97</v>
@@ -5131,10 +5131,10 @@
         <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
@@ -5152,7 +5152,7 @@
         <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
@@ -5173,7 +5173,7 @@
         <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -5188,13 +5188,13 @@
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
@@ -5218,7 +5218,7 @@
         <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM35" t="n">
         <v>120</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I36" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J36" t="n">
         <v>4.4</v>
@@ -5293,7 +5293,7 @@
         <v>1.53</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S36" t="n">
         <v>2.32</v>
@@ -5302,13 +5302,13 @@
         <v>1.56</v>
       </c>
       <c r="U36" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V36" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W36" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X36" t="n">
         <v>28</v>
@@ -5317,19 +5317,19 @@
         <v>14</v>
       </c>
       <c r="Z36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA36" t="n">
         <v>19.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
         <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -5338,7 +5338,7 @@
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH36" t="n">
         <v>15.5</v>
@@ -5347,10 +5347,10 @@
         <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="n">
         <v>40</v>
@@ -5359,7 +5359,7 @@
         <v>60</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO36" t="n">
         <v>7.2</v>
@@ -5398,16 +5398,16 @@
         <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I37" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>2.06</v>
       </c>
       <c r="I38" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J38" t="n">
         <v>3.25</v>
@@ -5575,13 +5575,13 @@
         <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W38" t="n">
         <v>1.3</v>
       </c>
       <c r="X38" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
         <v>8.6</v>
@@ -5608,10 +5608,10 @@
         <v>36</v>
       </c>
       <c r="AG38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
         <v>55</v>
@@ -5632,7 +5632,7 @@
         <v>95</v>
       </c>
       <c r="AO38" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -5665,13 +5665,13 @@
         <v>1.97</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
         <v>4.6</v>
       </c>
       <c r="I39" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -5686,25 +5686,25 @@
         <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>2.64</v>
+        <v>1.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P39" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="R39" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="S39" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U39" t="n">
         <v>1.71</v>
@@ -5716,22 +5716,22 @@
         <v>1.9</v>
       </c>
       <c r="X39" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="Z39" t="n">
         <v>970</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
@@ -5740,22 +5740,22 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG39" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH39" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="n">
-        <v>130</v>
+        <v>460</v>
       </c>
       <c r="AJ39" t="n">
         <v>970</v>
       </c>
       <c r="AK39" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5800,13 +5800,13 @@
         <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H40" t="n">
         <v>1.67</v>
       </c>
       <c r="I40" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5821,7 +5821,7 @@
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O40" t="n">
         <v>1.38</v>
@@ -5830,7 +5830,7 @@
         <v>1.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
         <v>1.29</v>
@@ -5839,13 +5839,13 @@
         <v>3.95</v>
       </c>
       <c r="T40" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U40" t="n">
         <v>1.85</v>
       </c>
       <c r="V40" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W40" t="n">
         <v>1.18</v>
@@ -5863,10 +5863,10 @@
         <v>17.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
         <v>12</v>
@@ -5950,13 +5950,13 @@
         <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="M41" t="n">
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O41" t="n">
         <v>1.53</v>
@@ -5983,7 +5983,7 @@
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X41" t="n">
         <v>970</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,31 +691,31 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
         <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W2" t="n">
         <v>1.08</v>
@@ -724,7 +724,7 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -814,46 +814,46 @@
         <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
         <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
         <v>2.34</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
@@ -865,16 +865,16 @@
         <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>70</v>
@@ -898,7 +898,7 @@
         <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
         <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,22 +1015,22 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>3.85</v>
@@ -1105,7 +1105,7 @@
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
@@ -1120,10 +1120,10 @@
         <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
         <v>90</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1216,16 +1216,16 @@
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1237,10 +1237,10 @@
         <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1261,7 +1261,7 @@
         <v>1.68</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1288,28 +1288,28 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
         <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>65</v>
@@ -1348,13 +1348,13 @@
         <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
         <v>4.5</v>
@@ -1366,13 +1366,13 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
         <v>1.9</v>
@@ -1381,10 +1381,10 @@
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
         <v>1.89</v>
@@ -1402,7 +1402,7 @@
         <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1426,7 +1426,7 @@
         <v>46</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="n">
         <v>160</v>
@@ -1480,10 +1480,10 @@
         <v>2.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I8" t="n">
         <v>3.15</v>
@@ -1492,7 +1492,7 @@
         <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1507,22 +1507,22 @@
         <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="T8" t="n">
         <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>1.46</v>
@@ -1531,10 +1531,10 @@
         <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K9" t="n">
         <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.14</v>
@@ -1642,7 +1642,7 @@
         <v>1.61</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
         <v>2.8</v>
@@ -1657,34 +1657,34 @@
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
         <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X9" t="n">
         <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
         <v>450</v>
@@ -1696,13 +1696,13 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK9" t="n">
         <v>280</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I10" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1771,85 +1771,85 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
         <v>4.7</v>
       </c>
       <c r="T10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.98</v>
       </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W10" t="n">
         <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
         <v>32</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
@@ -1912,7 +1912,7 @@
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
         <v>2.06</v>
@@ -1924,37 +1924,37 @@
         <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
         <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>75</v>
@@ -1969,25 +1969,25 @@
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G12" t="n">
         <v>3.05</v>
@@ -2029,13 +2029,13 @@
         <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2050,7 +2050,7 @@
         <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
         <v>1.4</v>
@@ -2062,10 +2062,10 @@
         <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
@@ -2083,16 +2083,16 @@
         <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2104,22 +2104,22 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="n">
         <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I13" t="n">
         <v>3.1</v>
@@ -2179,13 +2179,13 @@
         <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
@@ -2194,16 +2194,16 @@
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
         <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
         <v>11.5</v>
@@ -2230,25 +2230,25 @@
         <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
         <v>380</v>
@@ -2257,7 +2257,7 @@
         <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
         <v>2.64</v>
@@ -2299,13 +2299,13 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
@@ -2317,16 +2317,16 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
         <v>1.81</v>
@@ -2335,19 +2335,19 @@
         <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -2359,40 +2359,40 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
         <v>95</v>
       </c>
       <c r="AF14" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
         <v>200</v>
       </c>
       <c r="AM14" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2440,10 +2440,10 @@
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
         <v>2.98</v>
@@ -2467,7 +2467,7 @@
         <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
@@ -2479,7 +2479,7 @@
         <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
         <v>19</v>
@@ -2488,7 +2488,7 @@
         <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
         <v>6.6</v>
@@ -2503,7 +2503,7 @@
         <v>17.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
@@ -2512,10 +2512,10 @@
         <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
         <v>60</v>
@@ -2524,7 +2524,7 @@
         <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
         <v>46</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
         <v>4.2</v>
@@ -2575,10 +2575,10 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.8</v>
@@ -2587,7 +2587,7 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
         <v>1.69</v>
@@ -2599,70 +2599,70 @@
         <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
         <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
         <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>19.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
@@ -2692,109 +2692,109 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G17" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="H17" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>2.94</v>
+        <v>2.22</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.44</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="W17" t="n">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
         <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J18" t="n">
         <v>2.9</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2860,7 +2860,7 @@
         <v>1.71</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
         <v>1.26</v>
@@ -2869,70 +2869,70 @@
         <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2980,13 +2980,13 @@
         <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
@@ -2998,22 +2998,22 @@
         <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T19" t="n">
         <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
         <v>1.25</v>
       </c>
       <c r="W19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
         <v>20</v>
@@ -3025,7 +3025,7 @@
         <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -3043,13 +3043,13 @@
         <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>22</v>
@@ -3058,10 +3058,10 @@
         <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
         <v>10.5</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="G20" t="n">
         <v>2.1</v>
@@ -3106,19 +3106,19 @@
         <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>3.2</v>
@@ -3127,7 +3127,7 @@
         <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q20" t="n">
         <v>2.16</v>
@@ -3139,70 +3139,70 @@
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U20" t="n">
         <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W20" t="n">
         <v>1.92</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
         <v>14</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB20" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN20" t="n">
         <v>18</v>
       </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3238,7 +3238,7 @@
         <v>1.58</v>
       </c>
       <c r="H21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
         <v>8.6</v>
@@ -3250,7 +3250,7 @@
         <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3262,10 +3262,10 @@
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
         <v>1.38</v>
@@ -3301,7 +3301,7 @@
         <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
@@ -3322,10 +3322,10 @@
         <v>520</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13.5</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
         <v>970</v>
@@ -3385,13 +3385,13 @@
         <v>3.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3403,7 +3403,7 @@
         <v>1.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
         <v>2.92</v>
@@ -3421,7 +3421,7 @@
         <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>12.5</v>
@@ -3448,7 +3448,7 @@
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -3457,10 +3457,10 @@
         <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="n">
         <v>36</v>
@@ -3472,7 +3472,7 @@
         <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.59</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H23" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>4.5</v>
@@ -3520,19 +3520,19 @@
         <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q23" t="n">
         <v>1.69</v>
@@ -3541,10 +3541,10 @@
         <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
         <v>2.24</v>
@@ -3553,19 +3553,19 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
         <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
@@ -3583,7 +3583,7 @@
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
@@ -3604,10 +3604,10 @@
         <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -3643,10 +3643,10 @@
         <v>2.54</v>
       </c>
       <c r="H24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.15</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3655,13 +3655,13 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
@@ -3670,19 +3670,19 @@
         <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
         <v>1.47</v>
@@ -3691,7 +3691,7 @@
         <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
         <v>13.5</v>
@@ -3739,10 +3739,10 @@
         <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -3772,94 +3772,94 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
         <v>2.64</v>
       </c>
       <c r="O25" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S25" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.43</v>
       </c>
-      <c r="W25" t="n">
-        <v>1.49</v>
-      </c>
       <c r="X25" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF25" t="n">
         <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ25" t="n">
         <v>1000</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>3.85</v>
@@ -3925,94 +3925,94 @@
         <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.68</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X26" t="n">
         <v>32</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z26" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC26" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC26" t="n">
-        <v>10</v>
-      </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>320</v>
       </c>
       <c r="AF26" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>250</v>
       </c>
       <c r="AJ26" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G27" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
@@ -4060,16 +4060,16 @@
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
         <v>2.28</v>
@@ -4081,7 +4081,7 @@
         <v>1.51</v>
       </c>
       <c r="S27" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="T27" t="n">
         <v>1.67</v>
@@ -4093,61 +4093,61 @@
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AM27" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AO27" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H28" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,28 +4201,28 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q28" t="n">
         <v>1.54</v>
       </c>
       <c r="R28" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S28" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="T28" t="n">
         <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V28" t="n">
         <v>1.37</v>
@@ -4246,7 +4246,7 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
         <v>970</v>
@@ -4261,7 +4261,7 @@
         <v>970</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
         <v>970</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AO28" t="n">
         <v>970</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H29" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4330,7 +4330,7 @@
         <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -4339,19 +4339,19 @@
         <v>4.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
         <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
         <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T29" t="n">
         <v>1.64</v>
@@ -4360,13 +4360,13 @@
         <v>2.26</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="W29" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
         <v>15</v>
@@ -4393,7 +4393,7 @@
         <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>17</v>
@@ -4411,13 +4411,13 @@
         <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
         <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G30" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I30" t="n">
         <v>3.15</v>
@@ -4462,10 +4462,10 @@
         <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -4477,22 +4477,22 @@
         <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="R30" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T30" t="n">
         <v>1.68</v>
       </c>
       <c r="U30" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V30" t="n">
         <v>1.01</v>
@@ -4501,22 +4501,22 @@
         <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Z30" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
         <v>22</v>
@@ -4525,34 +4525,34 @@
         <v>970</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AL30" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AM30" t="n">
         <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
     </row>
     <row r="31">
@@ -4582,31 +4582,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="G31" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.94</v>
+        <v>2.52</v>
       </c>
       <c r="O31" t="n">
         <v>1.43</v>
@@ -4618,55 +4618,55 @@
         <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="U31" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V31" t="n">
         <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
         <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>40</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
         <v>60</v>
@@ -4675,19 +4675,19 @@
         <v>55</v>
       </c>
       <c r="AK31" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
         <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
         <v>42</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -4720,109 +4720,109 @@
         <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="S32" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="T32" t="n">
         <v>1.69</v>
       </c>
       <c r="U32" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA32" t="n">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AB32" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AJ32" t="n">
         <v>42</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -4852,109 +4852,109 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G33" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S33" t="n">
         <v>2.44</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.48</v>
       </c>
       <c r="T33" t="n">
         <v>1.64</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z33" t="n">
         <v>970</v>
       </c>
-      <c r="Z33" t="n">
-        <v>50</v>
-      </c>
       <c r="AA33" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="AJ33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL33" t="n">
         <v>970</v>
       </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>34</v>
-      </c>
       <c r="AM33" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO33" t="n">
         <v>970</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G34" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
         <v>3.6</v>
@@ -5002,10 +5002,10 @@
         <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5038,13 +5038,13 @@
         <v>1.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z34" t="n">
         <v>70</v>
@@ -5053,31 +5053,31 @@
         <v>440</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
         <v>970</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
         <v>970</v>
       </c>
       <c r="AJ34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK34" t="n">
         <v>60</v>
@@ -5086,10 +5086,10 @@
         <v>970</v>
       </c>
       <c r="AM34" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5122,40 +5122,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
         <v>4.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O35" t="n">
         <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>1.33</v>
@@ -5164,10 +5164,10 @@
         <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
         <v>1.26</v>
@@ -5179,7 +5179,7 @@
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
@@ -5188,13 +5188,13 @@
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
@@ -5209,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ35" t="n">
         <v>22</v>
@@ -5224,10 +5224,10 @@
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
-        <v>75</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
@@ -5263,10 +5263,10 @@
         <v>4.8</v>
       </c>
       <c r="H36" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.78</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.79</v>
       </c>
       <c r="J36" t="n">
         <v>4.4</v>
@@ -5299,25 +5299,25 @@
         <v>2.32</v>
       </c>
       <c r="T36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U36" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="V36" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W36" t="n">
         <v>1.26</v>
       </c>
       <c r="X36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y36" t="n">
         <v>14</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA36" t="n">
         <v>19.5</v>
@@ -5338,7 +5338,7 @@
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH36" t="n">
         <v>15.5</v>
@@ -5353,10 +5353,10 @@
         <v>44</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN36" t="n">
         <v>36</v>
@@ -5398,10 +5398,10 @@
         <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I37" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5542,7 +5542,7 @@
         <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5587,49 +5587,49 @@
         <v>8.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC38" t="n">
         <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ38" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AK38" t="n">
         <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
         <v>22</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I39" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -5692,19 +5692,19 @@
         <v>1.51</v>
       </c>
       <c r="P39" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q39" t="n">
         <v>2.12</v>
       </c>
       <c r="R39" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S39" t="n">
         <v>4.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U39" t="n">
         <v>1.71</v>
@@ -5713,13 +5713,13 @@
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X39" t="n">
         <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Z39" t="n">
         <v>970</v>
@@ -5728,10 +5728,10 @@
         <v>340</v>
       </c>
       <c r="AB39" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
@@ -5740,13 +5740,13 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AI39" t="n">
         <v>460</v>
@@ -5755,7 +5755,7 @@
         <v>970</v>
       </c>
       <c r="AK39" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5803,10 +5803,10 @@
         <v>6.6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I40" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5815,76 +5815,76 @@
         <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S40" t="n">
         <v>3.95</v>
       </c>
       <c r="T40" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U40" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W40" t="n">
         <v>1.18</v>
       </c>
       <c r="X40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="Z40" t="n">
         <v>9</v>
       </c>
       <c r="AA40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB40" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>18</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG40" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AH40" t="n">
         <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ40" t="n">
         <v>200</v>
@@ -5893,13 +5893,13 @@
         <v>110</v>
       </c>
       <c r="AL40" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM40" t="n">
         <v>170</v>
       </c>
       <c r="AN40" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AO40" t="n">
         <v>12.5</v>
@@ -5944,7 +5944,7 @@
         <v>4.8</v>
       </c>
       <c r="J41" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>3.4</v>
@@ -5956,13 +5956,13 @@
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P41" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q41" t="n">
         <v>2.6</v>
@@ -5971,7 +5971,7 @@
         <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T41" t="n">
         <v>2.14</v>
@@ -5986,52 +5986,52 @@
         <v>1.79</v>
       </c>
       <c r="X41" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI41" t="n">
         <v>130</v>
       </c>
       <c r="AJ41" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="G2" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="H2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.33</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="W2" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -805,16 +805,16 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
         <v>3.35</v>
@@ -826,28 +826,28 @@
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
         <v>1.4</v>
@@ -859,19 +859,19 @@
         <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
         <v>15</v>
@@ -940,58 +940,58 @@
         <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.08</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.87</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1075,43 +1075,43 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
         <v>2.34</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.69</v>
@@ -1126,7 +1126,7 @@
         <v>1.35</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.47</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Altamura</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.8</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.6</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.17</v>
-      </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>450</v>
       </c>
       <c r="AF7" t="n">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.15</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Altamura</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Latina</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>5.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>1.59</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>1.66</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>2.36</v>
+        <v>2.82</v>
       </c>
       <c r="O9" t="n">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.8</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB9" t="n">
         <v>24</v>
       </c>
-      <c r="AA9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
         <v>3.65</v>
       </c>
       <c r="H10" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
         <v>2.54</v>
@@ -1777,28 +1777,28 @@
         <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
         <v>4.7</v>
       </c>
       <c r="T10" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.97</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
@@ -1840,7 +1840,7 @@
         <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
         <v>70</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
         <v>32</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H11" t="n">
         <v>5.1</v>
@@ -1900,7 +1900,7 @@
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1909,22 +1909,22 @@
         <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
         <v>1.99</v>
@@ -1933,13 +1933,13 @@
         <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
         <v>40</v>
@@ -1963,7 +1963,7 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
@@ -1981,13 +1981,13 @@
         <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
         <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G12" t="n">
         <v>3.05</v>
@@ -2026,46 +2026,46 @@
         <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
         <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
@@ -2080,7 +2080,7 @@
         <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AB12" t="n">
         <v>14</v>
@@ -2098,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
@@ -2116,7 +2116,7 @@
         <v>160</v>
       </c>
       <c r="AM12" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>30</v>
@@ -2155,7 +2155,7 @@
         <v>2.84</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
         <v>2.94</v>
@@ -2194,16 +2194,16 @@
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
         <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
         <v>11.5</v>
@@ -2251,7 +2251,7 @@
         <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
         <v>34</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
@@ -2317,16 +2317,16 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
         <v>1.81</v>
@@ -2338,7 +2338,7 @@
         <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -2392,7 +2392,7 @@
         <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2440,37 +2440,37 @@
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="O15" t="n">
         <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q15" t="n">
         <v>2.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
         <v>4.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
         <v>1.52</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
@@ -2524,7 +2524,7 @@
         <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO15" t="n">
         <v>46</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G16" t="n">
         <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
         <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2584,10 +2584,10 @@
         <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
         <v>1.69</v>
@@ -2596,13 +2596,13 @@
         <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
         <v>1.32</v>
@@ -2611,58 +2611,58 @@
         <v>1.98</v>
       </c>
       <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
         <v>21</v>
       </c>
-      <c r="Y16" t="n">
-        <v>18.5</v>
-      </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.48</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>1.71</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>2.64</v>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>2.42</v>
+        <v>1.47</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ17" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AL17" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,52 +2818,52 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J18" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -2872,49 +2872,49 @@
         <v>1.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.04</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W19" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>18</v>
-      </c>
       <c r="AO20" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
@@ -3244,7 +3244,7 @@
         <v>8.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
@@ -3256,25 +3256,25 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
         <v>1.83</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>14</v>
@@ -3334,7 +3334,7 @@
         <v>430</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO21" t="n">
         <v>200</v>
@@ -3373,10 +3373,10 @@
         <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
@@ -3400,13 +3400,13 @@
         <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T22" t="n">
         <v>1.64</v>
@@ -3415,7 +3415,7 @@
         <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W22" t="n">
         <v>1.45</v>
@@ -3448,16 +3448,16 @@
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -3472,7 +3472,7 @@
         <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
@@ -3508,10 +3508,10 @@
         <v>1.59</v>
       </c>
       <c r="H23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I23" t="n">
         <v>6.8</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>4.5</v>
@@ -3535,16 +3535,16 @@
         <v>2.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
         <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
         <v>2.24</v>
@@ -3553,7 +3553,7 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
@@ -3571,7 +3571,7 @@
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
         <v>24</v>
@@ -3583,7 +3583,7 @@
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
@@ -3592,7 +3592,7 @@
         <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>14.5</v>
@@ -3607,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G24" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H24" t="n">
         <v>3.05</v>
@@ -3694,7 +3694,7 @@
         <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>21</v>
@@ -3727,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
         <v>25</v>
@@ -3742,7 +3742,7 @@
         <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="G25" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="H25" t="n">
-        <v>2.72</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.27</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.17</v>
-      </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI25" t="n">
         <v>80</v>
       </c>
-      <c r="AH25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>460</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G26" t="n">
         <v>1.89</v>
@@ -3940,13 +3940,13 @@
         <v>2.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
         <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
         <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="T27" t="n">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="U27" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X27" t="n">
         <v>970</v>
@@ -4183,22 +4183,22 @@
         <v>2.36</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
         <v>3.65</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
       </c>
       <c r="N28" t="n">
         <v>4.8</v>
@@ -4216,7 +4216,7 @@
         <v>1.6</v>
       </c>
       <c r="S28" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="T28" t="n">
         <v>1.53</v>
@@ -4276,7 +4276,7 @@
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
         <v>85</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G29" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
         <v>3.35</v>
@@ -4330,7 +4330,7 @@
         <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -4351,7 +4351,7 @@
         <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
         <v>1.64</v>
@@ -4363,7 +4363,7 @@
         <v>1.43</v>
       </c>
       <c r="W29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X29" t="n">
         <v>18</v>
@@ -4450,7 +4450,7 @@
         <v>2.44</v>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H30" t="n">
         <v>2.92</v>
@@ -4465,10 +4465,10 @@
         <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
         <v>4.1</v>
@@ -4477,16 +4477,16 @@
         <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T30" t="n">
         <v>1.68</v>
@@ -4549,7 +4549,7 @@
         <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
         <v>970</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
@@ -4603,19 +4603,19 @@
         <v>1.42</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O31" t="n">
         <v>1.43</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R31" t="n">
         <v>1.22</v>
@@ -4633,7 +4633,7 @@
         <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
         <v>17</v>
@@ -4654,7 +4654,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>40</v>
@@ -4663,13 +4663,13 @@
         <v>19</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="n">
         <v>55</v>
@@ -4678,13 +4678,13 @@
         <v>40</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO31" t="n">
         <v>42</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G32" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="H32" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="I32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
@@ -4738,10 +4738,10 @@
         <v>1.32</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>3.55</v>
+        <v>2.18</v>
       </c>
       <c r="O32" t="n">
         <v>1.23</v>
@@ -4768,10 +4768,10 @@
         <v>1.47</v>
       </c>
       <c r="W32" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
         <v>16</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.9</v>
@@ -4870,7 +4870,7 @@
         <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -4885,7 +4885,7 @@
         <v>2.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="R33" t="n">
         <v>1.56</v>
@@ -4903,7 +4903,7 @@
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X33" t="n">
         <v>44</v>
@@ -4918,7 +4918,7 @@
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
         <v>13.5</v>
@@ -4930,7 +4930,7 @@
         <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4987,61 +4987,61 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="T34" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
-        <v>2.24</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="W34" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y34" t="n">
         <v>46</v>
@@ -5050,7 +5050,7 @@
         <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="AB34" t="n">
         <v>19</v>
@@ -5062,10 +5062,10 @@
         <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AF34" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="AG34" t="n">
         <v>17</v>
@@ -5083,13 +5083,13 @@
         <v>60</v>
       </c>
       <c r="AL34" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H35" t="n">
         <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.4</v>
@@ -5149,16 +5149,16 @@
         <v>3.65</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R35" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S35" t="n">
         <v>3.75</v>
@@ -5173,13 +5173,13 @@
         <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
@@ -5188,7 +5188,7 @@
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
@@ -5197,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="AE35" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
@@ -5206,10 +5206,10 @@
         <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AJ35" t="n">
         <v>22</v>
@@ -5227,7 +5227,7 @@
         <v>15</v>
       </c>
       <c r="AO35" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5263,10 +5263,10 @@
         <v>4.8</v>
       </c>
       <c r="H36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.77</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.78</v>
       </c>
       <c r="J36" t="n">
         <v>4.4</v>
@@ -5290,7 +5290,7 @@
         <v>2.84</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
         <v>1.74</v>
@@ -5302,7 +5302,7 @@
         <v>1.57</v>
       </c>
       <c r="U36" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V36" t="n">
         <v>2.28</v>
@@ -5359,10 +5359,10 @@
         <v>55</v>
       </c>
       <c r="AN36" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -5398,10 +5398,10 @@
         <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I37" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5539,7 +5539,7 @@
         <v>2.18</v>
       </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
         <v>3.6</v>
@@ -5572,7 +5572,7 @@
         <v>1.98</v>
       </c>
       <c r="U38" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V38" t="n">
         <v>1.84</v>
@@ -5602,7 +5602,7 @@
         <v>11.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF38" t="n">
         <v>32</v>
@@ -5623,7 +5623,7 @@
         <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM38" t="n">
         <v>580</v>
@@ -5662,40 +5662,40 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>1.1</v>
+        <v>2.26</v>
       </c>
       <c r="O39" t="n">
         <v>1.51</v>
       </c>
       <c r="P39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R39" t="n">
         <v>1.16</v>
@@ -5704,22 +5704,22 @@
         <v>4.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="U39" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="V39" t="n">
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="X39" t="n">
         <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Z39" t="n">
         <v>970</v>
@@ -5728,37 +5728,37 @@
         <v>340</v>
       </c>
       <c r="AB39" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC39" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG39" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
         <v>460</v>
       </c>
       <c r="AJ39" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G40" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I40" t="n">
         <v>1.66</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.7</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5821,13 +5821,13 @@
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O40" t="n">
         <v>1.37</v>
       </c>
       <c r="P40" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
         <v>2.1</v>
@@ -5845,10 +5845,10 @@
         <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X40" t="n">
         <v>13</v>
@@ -5857,13 +5857,13 @@
         <v>7.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AA40" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
@@ -5872,13 +5872,13 @@
         <v>10</v>
       </c>
       <c r="AE40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH40" t="n">
         <v>26</v>
@@ -5887,7 +5887,7 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK40" t="n">
         <v>110</v>
@@ -5896,13 +5896,13 @@
         <v>120</v>
       </c>
       <c r="AM40" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN40" t="n">
         <v>160</v>
       </c>
       <c r="AO40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -5938,7 +5938,7 @@
         <v>2.26</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
         <v>4.8</v>
@@ -5950,7 +5950,7 @@
         <v>3.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
         <v>1.12</v>
@@ -5971,13 +5971,13 @@
         <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
         <v>2.14</v>
       </c>
       <c r="U41" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V41" t="n">
         <v>1.27</v>
@@ -5986,7 +5986,7 @@
         <v>1.79</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
@@ -5998,13 +5998,13 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
         <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6025,7 +6025,7 @@
         <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="I2" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -730,7 +730,7 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -832,19 +832,19 @@
         <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
         <v>4.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>1.87</v>
@@ -853,52 +853,52 @@
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
         <v>44</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I4" t="n">
         <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,13 +1021,13 @@
         <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
         <v>110</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,40 +1075,40 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
         <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>3.05</v>
@@ -1117,16 +1117,16 @@
         <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
         <v>1.35</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1144,7 +1144,7 @@
         <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
         <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>15</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z7" t="n">
         <v>42</v>
@@ -1408,25 +1408,25 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
         <v>450</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>340</v>
@@ -1441,13 +1441,13 @@
         <v>460</v>
       </c>
       <c r="AM7" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,70 +1477,70 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
         <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
         <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
         <v>8.800000000000001</v>
@@ -1549,10 +1549,10 @@
         <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF8" t="n">
         <v>15</v>
@@ -1564,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
         <v>36</v>
@@ -1573,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
@@ -1582,7 +1582,7 @@
         <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="I9" t="n">
         <v>1.66</v>
@@ -1630,34 +1630,34 @@
         <v>4.5</v>
       </c>
       <c r="L9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.32</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
         <v>2.5</v>
@@ -1666,40 +1666,40 @@
         <v>1.17</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AF9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH9" t="n">
         <v>24</v>
       </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>28</v>
-      </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1765,7 +1765,7 @@
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1774,49 +1774,49 @@
         <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.97</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
         <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="n">
         <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>12</v>
@@ -1831,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1840,19 +1840,19 @@
         <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AL10" t="n">
         <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
         <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1900,28 +1900,28 @@
         <v>3.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
         <v>1.93</v>
@@ -1930,13 +1930,13 @@
         <v>1.99</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
         <v>17</v>
@@ -1963,13 +1963,13 @@
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
         <v>19.5</v>
@@ -1987,7 +1987,7 @@
         <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
@@ -2098,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
@@ -2107,10 +2107,10 @@
         <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="n">
         <v>160</v>
@@ -2119,10 +2119,10 @@
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,55 +2152,55 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="I13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.1</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
         <v>1.5</v>
@@ -2209,43 +2209,43 @@
         <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
         <v>290</v>
       </c>
       <c r="AJ13" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
         <v>130</v>
@@ -2254,10 +2254,10 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO13" t="n">
         <v>34</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2287,85 +2287,85 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="G14" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
         <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>95</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2374,16 +2374,16 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AJ14" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
         <v>30</v>
       </c>
       <c r="AL14" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -2392,7 +2392,7 @@
         <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2440,25 +2440,25 @@
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M15" t="n">
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
         <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
         <v>4.8</v>
@@ -2467,22 +2467,22 @@
         <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA15" t="n">
         <v>50</v>
@@ -2491,7 +2491,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
@@ -2557,109 +2557,109 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.96</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.02</v>
-      </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
         <v>28</v>
@@ -2761,10 +2761,10 @@
         <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>130</v>
@@ -2773,10 +2773,10 @@
         <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
         <v>290</v>
@@ -2785,7 +2785,7 @@
         <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
         <v>170</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="T18" t="n">
         <v>1.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V18" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G19" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="H19" t="n">
         <v>7.8</v>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.22</v>
+        <v>2.94</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
         <v>1.05</v>
@@ -3010,13 +3010,13 @@
         <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
         <v>42</v>
@@ -3040,7 +3040,7 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>44</v>
@@ -3052,7 +3052,7 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="n">
         <v>80</v>
@@ -3097,52 +3097,52 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>1.05</v>
       </c>
       <c r="V20" t="n">
         <v>1.25</v>
@@ -3151,58 +3151,58 @@
         <v>2.04</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="n">
-        <v>270</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21">
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I21" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
         <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V21" t="n">
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X21" t="n">
         <v>90</v>
@@ -3298,7 +3298,7 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
         <v>14</v>
@@ -3334,10 +3334,10 @@
         <v>430</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="I22" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
         <v>4.7</v>
@@ -3397,58 +3397,58 @@
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V22" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="W22" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
         <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -3457,22 +3457,22 @@
         <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
         <v>65</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.58</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.59</v>
       </c>
       <c r="H23" t="n">
         <v>6.6</v>
@@ -3523,25 +3523,25 @@
         <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
         <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
         <v>1.77</v>
@@ -3553,19 +3553,19 @@
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X23" t="n">
         <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z23" t="n">
         <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
@@ -3577,13 +3577,13 @@
         <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="n">
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
@@ -3601,7 +3601,7 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H24" t="n">
         <v>3.05</v>
@@ -3655,31 +3655,31 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
         <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
         <v>2.32</v>
@@ -3688,10 +3688,10 @@
         <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3709,13 +3709,13 @@
         <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
         <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
@@ -3736,10 +3736,10 @@
         <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H25" t="n">
         <v>4.2</v>
@@ -3790,40 +3790,40 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
         <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q25" t="n">
         <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
         <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X25" t="n">
         <v>12</v>
@@ -3832,7 +3832,7 @@
         <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
         <v>110</v>
@@ -3841,10 +3841,10 @@
         <v>8.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
         <v>70</v>
@@ -3874,7 +3874,7 @@
         <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO25" t="n">
         <v>85</v>
@@ -3910,46 +3910,46 @@
         <v>1.78</v>
       </c>
       <c r="G26" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
         <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="S26" t="n">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>1.54</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
@@ -3958,7 +3958,7 @@
         <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X26" t="n">
         <v>32</v>
@@ -4042,109 +4042,109 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="H27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.6</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
         <v>4.4</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5</v>
-      </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>2.22</v>
+        <v>2.92</v>
       </c>
       <c r="T27" t="n">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AA27" t="n">
         <v>250</v>
       </c>
       <c r="AB27" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>970</v>
       </c>
       <c r="AF27" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>970</v>
       </c>
       <c r="AJ27" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4180,55 +4180,55 @@
         <v>2.06</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="R28" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="S28" t="n">
         <v>2.28</v>
       </c>
       <c r="T28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W28" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4315,13 +4315,13 @@
         <v>2.32</v>
       </c>
       <c r="G29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4330,25 +4330,25 @@
         <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q29" t="n">
         <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S29" t="n">
         <v>3</v>
@@ -4363,7 +4363,7 @@
         <v>1.43</v>
       </c>
       <c r="W29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
         <v>18</v>
@@ -4411,7 +4411,7 @@
         <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
         <v>18</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G30" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>3.55</v>
@@ -4465,28 +4465,28 @@
         <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
         <v>1.68</v>
@@ -4519,7 +4519,7 @@
         <v>14</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
         <v>970</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="G31" t="n">
         <v>2.96</v>
       </c>
       <c r="H31" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -4600,94 +4600,94 @@
         <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="n">
         <v>1.43</v>
       </c>
       <c r="P31" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W31" t="n">
         <v>1.51</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN31" t="n">
         <v>40</v>
       </c>
-      <c r="AF31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>44</v>
-      </c>
       <c r="AO31" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -4717,46 +4717,46 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G32" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H32" t="n">
         <v>2.76</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="R32" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S32" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="T32" t="n">
         <v>1.69</v>
@@ -4765,19 +4765,19 @@
         <v>1.89</v>
       </c>
       <c r="V32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA32" t="n">
         <v>160</v>
@@ -4819,7 +4819,7 @@
         <v>330</v>
       </c>
       <c r="AN32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO32" t="n">
         <v>29</v>
@@ -4855,10 +4855,10 @@
         <v>1.77</v>
       </c>
       <c r="G33" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
         <v>4.9</v>
@@ -4867,16 +4867,16 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -4885,13 +4885,13 @@
         <v>2.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="R33" t="n">
         <v>1.56</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="T33" t="n">
         <v>1.64</v>
@@ -4903,7 +4903,7 @@
         <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X33" t="n">
         <v>44</v>
@@ -4918,7 +4918,7 @@
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AC33" t="n">
         <v>13.5</v>
@@ -4927,10 +4927,10 @@
         <v>110</v>
       </c>
       <c r="AE33" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AF33" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4954,7 +4954,7 @@
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO33" t="n">
         <v>970</v>
@@ -4987,46 +4987,46 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="G34" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="H34" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
         <v>4.2</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.16</v>
-      </c>
       <c r="O34" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="T34" t="n">
         <v>1.57</v>
@@ -5035,10 +5035,10 @@
         <v>1.05</v>
       </c>
       <c r="V34" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W34" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
@@ -5068,7 +5068,7 @@
         <v>18.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>24</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
         <v>4.8</v>
@@ -5140,31 +5140,31 @@
         <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O35" t="n">
         <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S35" t="n">
         <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
         <v>2.06</v>
@@ -5173,13 +5173,13 @@
         <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
@@ -5188,16 +5188,16 @@
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
@@ -5206,10 +5206,10 @@
         <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AJ35" t="n">
         <v>22</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H36" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="I36" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J36" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.28</v>
@@ -5290,7 +5290,7 @@
         <v>2.84</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
         <v>1.74</v>
@@ -5299,16 +5299,16 @@
         <v>2.32</v>
       </c>
       <c r="T36" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U36" t="n">
         <v>2.7</v>
       </c>
       <c r="V36" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X36" t="n">
         <v>27</v>
@@ -5317,7 +5317,7 @@
         <v>14</v>
       </c>
       <c r="Z36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA36" t="n">
         <v>19.5</v>
@@ -5338,7 +5338,7 @@
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH36" t="n">
         <v>15.5</v>
@@ -5362,7 +5362,7 @@
         <v>38</v>
       </c>
       <c r="AO36" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="37">
@@ -5398,7 +5398,7 @@
         <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I37" t="n">
         <v>2.68</v>
@@ -5407,7 +5407,7 @@
         <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5527,55 +5527,55 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I38" t="n">
         <v>2.18</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
         <v>3.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O38" t="n">
         <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U38" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W38" t="n">
         <v>1.3</v>
@@ -5584,7 +5584,7 @@
         <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z38" t="n">
         <v>13</v>
@@ -5602,7 +5602,7 @@
         <v>11.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
         <v>32</v>
@@ -5614,7 +5614,7 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ38" t="n">
         <v>290</v>
@@ -5623,7 +5623,7 @@
         <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
         <v>580</v>
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="G39" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I39" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>2.26</v>
+        <v>2.76</v>
       </c>
       <c r="O39" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P39" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="R39" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="S39" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="T39" t="n">
         <v>1.05</v>
@@ -5713,10 +5713,10 @@
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="X39" t="n">
-        <v>16.5</v>
+        <v>90</v>
       </c>
       <c r="Y39" t="n">
         <v>26</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H40" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="I40" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O40" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R40" t="n">
         <v>1.3</v>
       </c>
       <c r="S40" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T40" t="n">
         <v>2.08</v>
@@ -5845,64 +5845,64 @@
         <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA40" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
         <v>19</v>
       </c>
       <c r="AF40" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG40" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI40" t="n">
         <v>44</v>
       </c>
       <c r="AJ40" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AK40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL40" t="n">
         <v>110</v>
       </c>
-      <c r="AL40" t="n">
-        <v>120</v>
-      </c>
       <c r="AM40" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN40" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AO40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="41">
@@ -5932,61 +5932,61 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G41" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M41" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N41" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="O41" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P41" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="T41" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V41" t="n">
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
@@ -5998,13 +5998,13 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6019,13 +6019,13 @@
         <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="n">
         <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>24</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -739,7 +739,7 @@
         <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="H3" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
         <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,13 +940,13 @@
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -970,7 +970,7 @@
         <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>1.3</v>
@@ -985,10 +985,10 @@
         <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X4" t="n">
         <v>28</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>16</v>
@@ -1075,7 +1075,7 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.08</v>
@@ -1084,40 +1084,40 @@
         <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
         <v>1.75</v>
@@ -1126,7 +1126,7 @@
         <v>1.35</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1165,13 +1165,13 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
@@ -1219,13 +1219,13 @@
         <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1234,7 +1234,7 @@
         <v>2.64</v>
       </c>
       <c r="O6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P6" t="n">
         <v>1.51</v>
@@ -1252,16 +1252,16 @@
         <v>2.14</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
         <v>1.52</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>15</v>
@@ -1270,13 +1270,13 @@
         <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>13.5</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
         <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>1.64</v>
@@ -1366,40 +1366,40 @@
         <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
         <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
         <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
         <v>42</v>
@@ -1420,7 +1420,7 @@
         <v>450</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
         <v>3.7</v>
@@ -1504,19 +1504,19 @@
         <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q8" t="n">
         <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.89</v>
@@ -1564,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
         <v>36</v>
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="I9" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
         <v>1.89</v>
@@ -1651,7 +1651,7 @@
         <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
         <v>1.92</v>
@@ -1660,13 +1660,13 @@
         <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>8.199999999999999</v>
@@ -1678,10 +1678,10 @@
         <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
         <v>10.5</v>
@@ -1690,25 +1690,25 @@
         <v>19.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AL9" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
         <v>5.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1915,7 +1915,7 @@
         <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
@@ -1924,19 +1924,19 @@
         <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
         <v>1.99</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
         <v>17</v>
@@ -1945,28 +1945,28 @@
         <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>80</v>
@@ -1987,7 +1987,7 @@
         <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -2050,10 +2050,10 @@
         <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
         <v>3.3</v>
@@ -2062,7 +2062,7 @@
         <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
         <v>1.6</v>
@@ -2083,7 +2083,7 @@
         <v>95</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
         <v>8.6</v>
@@ -2092,7 +2092,7 @@
         <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2104,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
         <v>210</v>
@@ -2119,7 +2119,7 @@
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
         <v>1.48</v>
@@ -2197,7 +2197,7 @@
         <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>1.51</v>
@@ -2206,52 +2206,52 @@
         <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
         <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
         <v>36</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2305,7 +2305,7 @@
         <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
@@ -2317,10 +2317,10 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
         <v>1.32</v>
@@ -2329,16 +2329,16 @@
         <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -2347,10 +2347,10 @@
         <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
         <v>10.5</v>
@@ -2359,40 +2359,40 @@
         <v>7.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="n">
         <v>30</v>
       </c>
       <c r="AL14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM14" t="n">
         <v>110</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G15" t="n">
         <v>2.98</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2446,19 +2446,19 @@
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
         <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
         <v>4.8</v>
@@ -2467,22 +2467,22 @@
         <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
         <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
         <v>50</v>
@@ -2491,13 +2491,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD15" t="n">
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
         <v>17.5</v>
@@ -2506,10 +2506,10 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
         <v>46</v>
@@ -2521,10 +2521,10 @@
         <v>60</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
         <v>46</v>
@@ -2560,7 +2560,7 @@
         <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
@@ -2572,19 +2572,19 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
         <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
         <v>2.34</v>
@@ -2599,10 +2599,10 @@
         <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
         <v>1.3</v>
@@ -2611,10 +2611,10 @@
         <v>2.04</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
         <v>80</v>
@@ -2632,13 +2632,13 @@
         <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
@@ -2656,13 +2656,13 @@
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
@@ -2692,100 +2692,100 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>130</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
         <v>170</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.25</v>
       </c>
       <c r="L18" t="n">
         <v>1.58</v>
@@ -2851,79 +2851,79 @@
         <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AE18" t="n">
         <v>300</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>460</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2965,19 +2965,19 @@
         <v>1.51</v>
       </c>
       <c r="G19" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.52</v>
@@ -2986,37 +2986,37 @@
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S19" t="n">
         <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>2.42</v>
       </c>
       <c r="U19" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>42</v>
@@ -3043,22 +3043,22 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>44</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>180</v>
       </c>
       <c r="AK19" t="n">
         <v>80</v>
       </c>
       <c r="AL19" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
         <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.35</v>
@@ -3121,25 +3121,25 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
         <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
         <v>1.05</v>
@@ -3148,7 +3148,7 @@
         <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3244,7 +3244,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -3268,19 +3268,19 @@
         <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
         <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W21" t="n">
         <v>2.66</v>
@@ -3310,7 +3310,7 @@
         <v>510</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG21" t="n">
         <v>16</v>
@@ -3322,7 +3322,7 @@
         <v>520</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AK21" t="n">
         <v>65</v>
@@ -3334,7 +3334,7 @@
         <v>430</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>180</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="J22" t="n">
         <v>3.7</v>
@@ -3388,7 +3388,7 @@
         <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>4.7</v>
@@ -3397,7 +3397,7 @@
         <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
         <v>1.77</v>
@@ -3406,22 +3406,22 @@
         <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T22" t="n">
         <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V22" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
@@ -3433,16 +3433,16 @@
         <v>29</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
         <v>25</v>
@@ -3454,25 +3454,25 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK22" t="n">
         <v>32</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
         <v>65</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H23" t="n">
         <v>6.6</v>
@@ -3520,43 +3520,43 @@
         <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V23" t="n">
         <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
         <v>27</v>
@@ -3583,28 +3583,28 @@
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
         <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK23" t="n">
         <v>14.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
         <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO23" t="n">
         <v>80</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.56</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3661,37 +3661,37 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
         <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
         <v>2.32</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3700,7 +3700,7 @@
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
         <v>11.5</v>
@@ -3709,7 +3709,7 @@
         <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>32</v>
@@ -3724,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ24" t="n">
         <v>36</v>
@@ -3739,10 +3739,10 @@
         <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O25" t="n">
         <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="n">
         <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
       </c>
       <c r="AD25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>24</v>
-      </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G26" t="n">
         <v>1.86</v>
@@ -3928,7 +3928,7 @@
         <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>4.8</v>
@@ -3949,70 +3949,70 @@
         <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF26" t="n">
         <v>24</v>
       </c>
-      <c r="Z26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>15</v>
-      </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
         <v>250</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AM26" t="n">
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.6</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
@@ -4063,7 +4063,7 @@
         <v>1.35</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
         <v>4.4</v>
@@ -4072,19 +4072,19 @@
         <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
         <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
         <v>2.28</v>
@@ -4093,7 +4093,7 @@
         <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
         <v>18.5</v>
@@ -4147,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.06</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.22</v>
-      </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
         <v>1.27</v>
@@ -4201,7 +4201,7 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.16</v>
@@ -4219,16 +4219,16 @@
         <v>2.28</v>
       </c>
       <c r="T28" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U28" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W28" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4282,7 +4282,7 @@
         <v>85</v>
       </c>
       <c r="AO28" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29">
@@ -4342,22 +4342,22 @@
         <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q29" t="n">
         <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S29" t="n">
         <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V29" t="n">
         <v>1.43</v>
@@ -4381,7 +4381,7 @@
         <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
@@ -4399,7 +4399,7 @@
         <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ29" t="n">
         <v>34</v>
@@ -4411,13 +4411,13 @@
         <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -4459,7 +4459,7 @@
         <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>3.8</v>
@@ -4477,13 +4477,13 @@
         <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q30" t="n">
         <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S30" t="n">
         <v>3</v>
@@ -4546,7 +4546,7 @@
         <v>970</v>
       </c>
       <c r="AM30" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
         <v>55</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G31" t="n">
         <v>2.96</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
@@ -4672,7 +4672,7 @@
         <v>290</v>
       </c>
       <c r="AJ31" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK31" t="n">
         <v>38</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G32" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I32" t="n">
         <v>3.05</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
         <v>3.95</v>
@@ -4738,91 +4738,91 @@
         <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
         <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S32" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T32" t="n">
         <v>1.69</v>
       </c>
       <c r="U32" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
         <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="n">
         <v>80</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AJ32" t="n">
-        <v>42</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN32" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AO32" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G33" t="n">
         <v>1.83</v>
@@ -4876,7 +4876,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -4894,7 +4894,7 @@
         <v>2.6</v>
       </c>
       <c r="T33" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
         <v>2.34</v>
@@ -4954,7 +4954,7 @@
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO33" t="n">
         <v>970</v>
@@ -4987,109 +4987,109 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G34" t="n">
         <v>2.34</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.37</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q34" t="n">
         <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S34" t="n">
         <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="U34" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="V34" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="Y34" t="n">
         <v>46</v>
       </c>
       <c r="Z34" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AA34" t="n">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE34" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI34" t="n">
         <v>970</v>
       </c>
       <c r="AJ34" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AK34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
@@ -5146,13 +5146,13 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O35" t="n">
         <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
@@ -5170,10 +5170,10 @@
         <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -5182,13 +5182,13 @@
         <v>16.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
@@ -5197,7 +5197,7 @@
         <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
@@ -5206,13 +5206,13 @@
         <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI35" t="n">
         <v>190</v>
       </c>
       <c r="AJ35" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
@@ -5224,7 +5224,7 @@
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G36" t="n">
         <v>4.8</v>
       </c>
-      <c r="G36" t="n">
-        <v>4.9</v>
-      </c>
       <c r="H36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I36" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J36" t="n">
         <v>4.5</v>
@@ -5275,40 +5275,40 @@
         <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R36" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S36" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T36" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U36" t="n">
         <v>2.7</v>
       </c>
       <c r="V36" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X36" t="n">
         <v>27</v>
@@ -5326,7 +5326,7 @@
         <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
         <v>9.800000000000001</v>
@@ -5344,10 +5344,10 @@
         <v>15.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ36" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK36" t="n">
         <v>44</v>
@@ -5359,10 +5359,10 @@
         <v>55</v>
       </c>
       <c r="AN36" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="37">
@@ -5395,10 +5395,10 @@
         <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I37" t="n">
         <v>2.68</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I38" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
         <v>3.6</v>
@@ -5557,10 +5557,10 @@
         <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
         <v>1.28</v>
@@ -5569,13 +5569,13 @@
         <v>4.2</v>
       </c>
       <c r="T38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.95</v>
       </c>
-      <c r="U38" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V38" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W38" t="n">
         <v>1.3</v>
@@ -5590,7 +5590,7 @@
         <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB38" t="n">
         <v>14</v>
@@ -5602,7 +5602,7 @@
         <v>11.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF38" t="n">
         <v>32</v>
@@ -5632,7 +5632,7 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H39" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I39" t="n">
         <v>5.2</v>
@@ -5677,7 +5677,7 @@
         <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.57</v>
@@ -5689,7 +5689,7 @@
         <v>2.76</v>
       </c>
       <c r="O39" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P39" t="n">
         <v>1.56</v>
@@ -5701,22 +5701,22 @@
         <v>1.2</v>
       </c>
       <c r="S39" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U39" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="V39" t="n">
         <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X39" t="n">
-        <v>90</v>
+        <v>9.4</v>
       </c>
       <c r="Y39" t="n">
         <v>26</v>
@@ -5728,43 +5728,43 @@
         <v>340</v>
       </c>
       <c r="AB39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC39" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="n">
         <v>460</v>
       </c>
       <c r="AJ39" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AK39" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AL39" t="n">
         <v>460</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN39" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G40" t="n">
         <v>6</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6.2</v>
       </c>
       <c r="H40" t="n">
         <v>1.7</v>
@@ -5809,49 +5809,49 @@
         <v>1.72</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="n">
         <v>4.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O40" t="n">
         <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T40" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U40" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V40" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="W40" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
         <v>7.2</v>
@@ -5860,13 +5860,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AA40" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD40" t="n">
         <v>9.800000000000001</v>
@@ -5878,7 +5878,7 @@
         <v>46</v>
       </c>
       <c r="AG40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH40" t="n">
         <v>25</v>
@@ -5887,10 +5887,10 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK40" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL40" t="n">
         <v>110</v>
@@ -5935,7 +5935,7 @@
         <v>2.1</v>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H41" t="n">
         <v>4.3</v>
@@ -5983,7 +5983,7 @@
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6025,7 +6025,7 @@
         <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -667,94 +667,94 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="I2" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="n">
         <v>32</v>
       </c>
-      <c r="Y2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,7 +763,7 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
         <v>2.44</v>
@@ -841,70 +841,70 @@
         <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>26</v>
       </c>
-      <c r="AA3" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>36</v>
-      </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
@@ -961,7 +961,7 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -976,22 +976,22 @@
         <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
         <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,22 +1015,22 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
         <v>2.08</v>
@@ -1084,13 +1084,13 @@
         <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,19 +1099,19 @@
         <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
         <v>1.66</v>
@@ -1120,31 +1120,31 @@
         <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1171,13 +1171,13 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1210,16 +1210,16 @@
         <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
         <v>3.2</v>
@@ -1228,19 +1228,19 @@
         <v>1.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="O6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="R6" t="n">
         <v>1.17</v>
@@ -1249,67 +1249,67 @@
         <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
         <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF6" t="n">
         <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,91 +1342,91 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.6</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.82</v>
-      </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.64</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.61</v>
       </c>
       <c r="P7" t="n">
         <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
         <v>1.69</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>450</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AI7" t="n">
         <v>340</v>
@@ -1441,7 +1441,7 @@
         <v>460</v>
       </c>
       <c r="AM7" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
         <v>3.35</v>
@@ -1492,7 +1492,7 @@
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1501,16 +1501,16 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>1.25</v>
@@ -1519,31 +1519,31 @@
         <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
         <v>1.66</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
         <v>7.8</v>
@@ -1552,10 +1552,10 @@
         <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
@@ -1564,25 +1564,25 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1612,94 +1612,94 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.8</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.6</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>2.32</v>
+        <v>1.79</v>
       </c>
       <c r="W9" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.5</v>
+        <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>16.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
         <v>3.7</v>
@@ -1756,7 +1756,7 @@
         <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1771,13 +1771,13 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
         <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
         <v>2.44</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1915,49 +1915,49 @@
         <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
         <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
         <v>10.5</v>
@@ -1969,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
         <v>19.5</v>
@@ -1981,10 +1981,10 @@
         <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>95</v>
@@ -2035,13 +2035,13 @@
         <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2050,7 +2050,7 @@
         <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
         <v>1.42</v>
@@ -2059,7 +2059,7 @@
         <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
         <v>2.3</v>
@@ -2071,58 +2071,58 @@
         <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL12" t="n">
         <v>40</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>160</v>
-      </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
@@ -2170,94 +2170,94 @@
         <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO13" t="n">
         <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2293,10 +2293,10 @@
         <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2305,34 +2305,34 @@
         <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
         <v>1.45</v>
@@ -2341,7 +2341,7 @@
         <v>1.58</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
         <v>11.5</v>
@@ -2353,10 +2353,10 @@
         <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>13.5</v>
@@ -2374,13 +2374,13 @@
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
         <v>38</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
         <v>46</v>
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>38</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
         <v>2.98</v>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.53</v>
@@ -2446,40 +2446,40 @@
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
         <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
         <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
         <v>18</v>
@@ -2488,7 +2488,7 @@
         <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
         <v>6.8</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>60</v>
@@ -2527,7 +2527,7 @@
         <v>42</v>
       </c>
       <c r="AO15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" t="n">
         <v>4.1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>4.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2581,61 +2581,61 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
         <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X16" t="n">
         <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
@@ -2644,25 +2644,25 @@
         <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2719,10 +2719,10 @@
         <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q17" t="n">
         <v>2.28</v>
@@ -2734,7 +2734,7 @@
         <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
         <v>1.89</v>
@@ -2743,22 +2743,22 @@
         <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>46</v>
       </c>
       <c r="AA17" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2770,19 +2770,19 @@
         <v>130</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
         <v>65</v>
@@ -2830,88 +2830,88 @@
         <v>2.74</v>
       </c>
       <c r="G18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M18" t="n">
         <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O18" t="n">
         <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S18" t="n">
         <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
         <v>1.43</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
         <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="n">
         <v>300</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AI18" t="n">
         <v>460</v>
@@ -2968,13 +2968,13 @@
         <v>1.56</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I19" t="n">
         <v>10.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
         <v>4.3</v>
@@ -2986,25 +2986,25 @@
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.38</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.42</v>
       </c>
       <c r="U19" t="n">
         <v>1.61</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="n">
         <v>42</v>
@@ -3040,7 +3040,7 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AG19" t="n">
         <v>40</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.35</v>
@@ -3121,13 +3121,13 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
         <v>1.73</v>
@@ -3139,10 +3139,10 @@
         <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="V20" t="n">
         <v>1.25</v>
@@ -3151,58 +3151,58 @@
         <v>2.06</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="n">
         <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>200</v>
       </c>
       <c r="AF20" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>250</v>
       </c>
       <c r="AJ20" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -3235,73 +3235,73 @@
         <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X21" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="Z21" t="n">
         <v>420</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
@@ -3310,34 +3310,34 @@
         <v>510</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="n">
         <v>520</v>
       </c>
       <c r="AJ21" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
         <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>9.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
@@ -3367,85 +3367,85 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H22" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="I22" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V22" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="W22" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
         <v>15.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
@@ -3454,13 +3454,13 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
@@ -3472,7 +3472,7 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23">
@@ -3532,22 +3532,22 @@
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q23" t="n">
         <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V23" t="n">
         <v>1.17</v>
@@ -3559,7 +3559,7 @@
         <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z23" t="n">
         <v>55</v>
@@ -3574,7 +3574,7 @@
         <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>75</v>
@@ -3586,10 +3586,10 @@
         <v>9.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
         <v>15.5</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
@@ -3670,10 +3670,10 @@
         <v>2.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="n">
         <v>3.35</v>
@@ -3682,7 +3682,7 @@
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
         <v>1.46</v>
@@ -3700,10 +3700,10 @@
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>7.6</v>
@@ -3712,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
         <v>16.5</v>
@@ -3742,7 +3742,7 @@
         <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3772,37 +3772,37 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q25" t="n">
         <v>2.16</v>
@@ -3811,37 +3811,37 @@
         <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
         <v>7.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
         <v>22</v>
@@ -3850,7 +3850,7 @@
         <v>85</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -3859,22 +3859,22 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
         <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AM25" t="n">
         <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
         <v>110</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G26" t="n">
         <v>1.86</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>4.4</v>
@@ -3937,10 +3937,10 @@
         <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R26" t="n">
         <v>1.5</v>
@@ -3949,7 +3949,7 @@
         <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
@@ -3964,16 +3964,16 @@
         <v>80</v>
       </c>
       <c r="Y26" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
@@ -3982,7 +3982,7 @@
         <v>110</v>
       </c>
       <c r="AE26" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AF26" t="n">
         <v>24</v>
@@ -3994,25 +3994,25 @@
         <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AK26" t="n">
         <v>65</v>
       </c>
       <c r="AL26" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AM26" t="n">
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27">
@@ -4051,7 +4051,7 @@
         <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
         <v>3.65</v>
@@ -4066,49 +4066,49 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R27" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="T27" t="n">
         <v>1.65</v>
       </c>
       <c r="U27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
         <v>1.86</v>
       </c>
       <c r="X27" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA27" t="n">
         <v>250</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
         <v>9</v>
@@ -4117,16 +4117,16 @@
         <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>970</v>
@@ -4135,7 +4135,7 @@
         <v>80</v>
       </c>
       <c r="AK27" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>150</v>
@@ -4147,7 +4147,7 @@
         <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>210</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -4180,55 +4180,55 @@
         <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U28" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="V28" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W28" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4276,13 +4276,13 @@
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
         <v>85</v>
       </c>
       <c r="AO28" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29">
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="R29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.44</v>
       </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
         <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -4447,28 +4447,28 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>4.4</v>
@@ -4477,22 +4477,22 @@
         <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R30" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T30" t="n">
         <v>1.68</v>
       </c>
       <c r="U30" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V30" t="n">
         <v>1.01</v>
@@ -4510,13 +4510,13 @@
         <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AB30" t="n">
         <v>24</v>
       </c>
       <c r="AC30" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
         <v>23</v>
@@ -4528,7 +4528,7 @@
         <v>970</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>28</v>
@@ -4585,10 +4585,10 @@
         <v>2.86</v>
       </c>
       <c r="G31" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H31" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I31" t="n">
         <v>2.88</v>
@@ -4597,10 +4597,10 @@
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -4609,10 +4609,10 @@
         <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q31" t="n">
         <v>2.34</v>
@@ -4624,7 +4624,7 @@
         <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
         <v>1.92</v>
@@ -4633,7 +4633,7 @@
         <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>
@@ -4669,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
         <v>48</v>
@@ -4681,7 +4681,7 @@
         <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
         <v>40</v>
@@ -4720,19 +4720,19 @@
         <v>2.48</v>
       </c>
       <c r="G32" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H32" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.37</v>
@@ -4741,25 +4741,25 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
         <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U32" t="n">
         <v>2.28</v>
@@ -4768,7 +4768,7 @@
         <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X32" t="n">
         <v>18</v>
@@ -4807,7 +4807,7 @@
         <v>270</v>
       </c>
       <c r="AJ32" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="n">
         <v>180</v>
@@ -4816,10 +4816,10 @@
         <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AO32" t="n">
         <v>600</v>
@@ -4855,16 +4855,16 @@
         <v>1.76</v>
       </c>
       <c r="G33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
         <v>4.5</v>
@@ -4876,34 +4876,34 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q33" t="n">
         <v>1.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="X33" t="n">
         <v>44</v>
@@ -4918,10 +4918,10 @@
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
         <v>110</v>
@@ -4945,16 +4945,16 @@
         <v>120</v>
       </c>
       <c r="AK33" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>970</v>
+        <v>170</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO33" t="n">
         <v>970</v>
@@ -4990,55 +4990,55 @@
         <v>2.22</v>
       </c>
       <c r="G34" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="R34" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T34" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U34" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="V34" t="n">
         <v>1.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="X34" t="n">
         <v>65</v>
@@ -5047,25 +5047,25 @@
         <v>46</v>
       </c>
       <c r="Z34" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AA34" t="n">
         <v>440</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD34" t="n">
         <v>25</v>
       </c>
       <c r="AE34" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
       <c r="AF34" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
         <v>17</v>
@@ -5086,10 +5086,10 @@
         <v>970</v>
       </c>
       <c r="AM34" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G35" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H35" t="n">
         <v>4.8</v>
@@ -5152,10 +5152,10 @@
         <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
         <v>1.35</v>
@@ -5164,7 +5164,7 @@
         <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U35" t="n">
         <v>2.06</v>
@@ -5173,22 +5173,22 @@
         <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
@@ -5197,7 +5197,7 @@
         <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
@@ -5206,28 +5206,28 @@
         <v>10.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AJ35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="n">
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
@@ -5275,34 +5275,34 @@
         <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q36" t="n">
         <v>1.51</v>
       </c>
       <c r="R36" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S36" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T36" t="n">
         <v>1.55</v>
       </c>
       <c r="U36" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V36" t="n">
         <v>2.3</v>
@@ -5311,13 +5311,13 @@
         <v>1.26</v>
       </c>
       <c r="X36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y36" t="n">
         <v>14</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA36" t="n">
         <v>19.5</v>
@@ -5329,16 +5329,16 @@
         <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF36" t="n">
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH36" t="n">
         <v>15.5</v>
@@ -5350,19 +5350,19 @@
         <v>90</v>
       </c>
       <c r="AK36" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>55</v>
       </c>
       <c r="AN36" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="37">
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I37" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
         <v>3.35</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
         <v>4.3</v>
@@ -5536,10 +5536,10 @@
         <v>2.06</v>
       </c>
       <c r="I38" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J38" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
         <v>3.6</v>
@@ -5569,19 +5569,19 @@
         <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U38" t="n">
         <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W38" t="n">
         <v>1.3</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y38" t="n">
         <v>8.4</v>
@@ -5590,7 +5590,7 @@
         <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB38" t="n">
         <v>14</v>
@@ -5602,7 +5602,7 @@
         <v>11.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
         <v>32</v>
@@ -5614,7 +5614,7 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AJ38" t="n">
         <v>290</v>
@@ -5623,16 +5623,16 @@
         <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AM38" t="n">
         <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO38" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G39" t="n">
         <v>2.06</v>
@@ -5689,7 +5689,7 @@
         <v>2.76</v>
       </c>
       <c r="O39" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P39" t="n">
         <v>1.56</v>
@@ -5707,7 +5707,7 @@
         <v>2.12</v>
       </c>
       <c r="U39" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V39" t="n">
         <v>1.25</v>
@@ -5722,7 +5722,7 @@
         <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AA39" t="n">
         <v>340</v>
@@ -5734,7 +5734,7 @@
         <v>8</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
@@ -5743,10 +5743,10 @@
         <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
         <v>460</v>
@@ -5755,7 +5755,7 @@
         <v>970</v>
       </c>
       <c r="AK39" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="n">
         <v>460</v>
@@ -5800,16 +5800,16 @@
         <v>5.9</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H40" t="n">
         <v>1.7</v>
       </c>
       <c r="I40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
         <v>4.1</v>
@@ -5821,46 +5821,46 @@
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S40" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
         <v>2.06</v>
       </c>
       <c r="U40" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y40" t="n">
         <v>7.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB40" t="n">
         <v>17.5</v>
@@ -5869,7 +5869,7 @@
         <v>8.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE40" t="n">
         <v>19</v>
@@ -5881,19 +5881,19 @@
         <v>23</v>
       </c>
       <c r="AH40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ40" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK40" t="n">
         <v>95</v>
       </c>
       <c r="AL40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM40" t="n">
         <v>160</v>
@@ -5986,46 +5986,46 @@
         <v>1.84</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH41" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI41" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK41" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6034,7 +6034,7 @@
         <v>250</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -667,91 +667,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.37</v>
+        <v>1.98</v>
       </c>
       <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.39</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
         <v>3.55</v>
       </c>
-      <c r="W2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AI2" t="n">
         <v>46</v>
@@ -760,19 +760,19 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
         <v>95</v>
       </c>
-      <c r="AF3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>120</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>27</v>
       </c>
-      <c r="AL3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>28</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,7 +1099,7 @@
         <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>2.06</v>
@@ -1108,76 +1108,76 @@
         <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
         <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
         <v>20</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
         <v>2.98</v>
       </c>
       <c r="H6" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1246,16 +1246,16 @@
         <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
         <v>1.51</v>
@@ -1267,34 +1267,34 @@
         <v>8.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>230</v>
@@ -1303,13 +1303,13 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,88 +1342,88 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M7" t="n">
         <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="O7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>450</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
         <v>65</v>
@@ -1435,16 +1435,16 @@
         <v>170</v>
       </c>
       <c r="AK7" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
         <v>460</v>
       </c>
       <c r="AM7" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
         <v>2.54</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>3.4</v>
@@ -1501,7 +1501,7 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1525,25 +1525,25 @@
         <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
         <v>1.66</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
         <v>350</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>7.8</v>
@@ -1552,7 +1552,7 @@
         <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AF8" t="n">
         <v>15.5</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="I9" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,88 +1636,88 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK9" t="n">
         <v>65</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AL9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="n">
         <v>130</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AN9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO9" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>420</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1900,22 +1900,22 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>1.34</v>
@@ -1924,16 +1924,16 @@
         <v>3.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>1.23</v>
       </c>
       <c r="W11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
@@ -1948,22 +1948,22 @@
         <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -1978,13 +1978,13 @@
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
         <v>95</v>
@@ -2023,10 +2023,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2047,10 +2047,10 @@
         <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
         <v>1.42</v>
@@ -2062,7 +2062,7 @@
         <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
         <v>1.6</v>
@@ -2071,34 +2071,34 @@
         <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>16</v>
@@ -2119,10 +2119,10 @@
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.94</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.96</v>
-      </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
@@ -2179,34 +2179,34 @@
         <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
         <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
         <v>10.5</v>
@@ -2236,16 +2236,16 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
         <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.15</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.47</v>
@@ -2314,7 +2314,7 @@
         <v>3.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
         <v>1.8</v>
@@ -2329,16 +2329,16 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X14" t="n">
         <v>11.5</v>
@@ -2371,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
@@ -2380,7 +2380,7 @@
         <v>38</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
         <v>46</v>
@@ -2389,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
         <v>38</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3.05</v>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L15" t="n">
         <v>1.53</v>
@@ -2449,25 +2449,25 @@
         <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R15" t="n">
         <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2476,10 +2476,10 @@
         <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
         <v>18</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>60</v>
@@ -2518,13 +2518,13 @@
         <v>38</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
         <v>42</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.88</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.92</v>
-      </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2599,28 +2599,28 @@
         <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X16" t="n">
         <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
         <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
@@ -2638,19 +2638,19 @@
         <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
         <v>2.36</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
         <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2734,31 +2734,31 @@
         <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
         <v>46</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2773,28 +2773,28 @@
         <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AL17" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2839,7 +2839,7 @@
         <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>3.05</v>
@@ -2854,7 +2854,7 @@
         <v>2.66</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
         <v>1.54</v>
@@ -2863,7 +2863,7 @@
         <v>2.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
         <v>5.4</v>
@@ -2881,10 +2881,10 @@
         <v>1.51</v>
       </c>
       <c r="X18" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" t="n">
         <v>130</v>
@@ -2896,7 +2896,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
         <v>75</v>
@@ -2905,13 +2905,13 @@
         <v>300</v>
       </c>
       <c r="AF18" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AG18" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="n">
         <v>460</v>
@@ -2923,16 +2923,16 @@
         <v>280</v>
       </c>
       <c r="AL18" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
@@ -2962,37 +2962,37 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.51</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.52</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
         <v>2.32</v>
@@ -3001,19 +3001,19 @@
         <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="U19" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V19" t="n">
         <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>42</v>
@@ -3040,10 +3040,10 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I20" t="n">
         <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3139,10 +3139,10 @@
         <v>2.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U20" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
         <v>1.25</v>
@@ -3151,58 +3151,58 @@
         <v>2.06</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AG20" t="n">
         <v>11</v>
       </c>
-      <c r="AD20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
@@ -3232,40 +3232,40 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I21" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
         <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
         <v>1.36</v>
@@ -3274,28 +3274,28 @@
         <v>3.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="n">
         <v>420</v>
       </c>
       <c r="AA21" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AB21" t="n">
         <v>8</v>
@@ -3304,25 +3304,25 @@
         <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="n">
         <v>510</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="n">
         <v>520</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>30</v>
@@ -3334,7 +3334,7 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO21" t="n">
         <v>220</v>
@@ -3373,10 +3373,10 @@
         <v>3.55</v>
       </c>
       <c r="H22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.24</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
@@ -3394,25 +3394,25 @@
         <v>5.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
         <v>2.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S22" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T22" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U22" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V22" t="n">
         <v>1.81</v>
@@ -3421,10 +3421,10 @@
         <v>1.39</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
         <v>15.5</v>
@@ -3445,16 +3445,16 @@
         <v>20</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ22" t="n">
         <v>60</v>
@@ -3466,7 +3466,7 @@
         <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
         <v>28</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G23" t="n">
         <v>1.59</v>
       </c>
       <c r="H23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I23" t="n">
         <v>6.6</v>
       </c>
-      <c r="I23" t="n">
-        <v>6.8</v>
-      </c>
       <c r="J23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>1.32</v>
@@ -3526,22 +3526,22 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q23" t="n">
         <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T23" t="n">
         <v>1.74</v>
@@ -3556,7 +3556,7 @@
         <v>2.68</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>28</v>
@@ -3583,10 +3583,10 @@
         <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
         <v>65</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
         <v>2.54</v>
@@ -3667,13 +3667,13 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
         <v>3.35</v>
@@ -3682,7 +3682,7 @@
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
         <v>1.46</v>
@@ -3700,7 +3700,7 @@
         <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
@@ -3712,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
         <v>16.5</v>
@@ -3721,7 +3721,7 @@
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
         <v>42</v>
@@ -3736,10 +3736,10 @@
         <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H25" t="n">
         <v>4.9</v>
       </c>
       <c r="I25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J25" t="n">
         <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -3808,7 +3808,7 @@
         <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
         <v>3.95</v>
@@ -3817,22 +3817,22 @@
         <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA25" t="n">
         <v>140</v>
@@ -3841,7 +3841,7 @@
         <v>7.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
         <v>22</v>
@@ -3862,19 +3862,19 @@
         <v>90</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
         <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>110</v>
@@ -3916,7 +3916,7 @@
         <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -3937,7 +3937,7 @@
         <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q26" t="n">
         <v>1.71</v>
@@ -3955,19 +3955,19 @@
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X26" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
         <v>44</v>
       </c>
       <c r="Z26" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3979,37 +3979,37 @@
         <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AE26" t="n">
         <v>320</v>
       </c>
       <c r="AF26" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
         <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO26" t="n">
         <v>300</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G27" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H27" t="n">
         <v>3.55</v>
       </c>
       <c r="I27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.95</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>1.35</v>
@@ -4066,82 +4066,82 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T27" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="Z27" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AA27" t="n">
         <v>250</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
         <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
         <v>170</v>
       </c>
       <c r="AF27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AJ27" t="n">
         <v>80</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>320</v>
       </c>
       <c r="AN27" t="n">
         <v>13</v>
@@ -4180,55 +4180,55 @@
         <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
         <v>4.2</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.58</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>1.63</v>
       </c>
-      <c r="S28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.54</v>
-      </c>
       <c r="U28" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4312,82 +4312,82 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G29" t="n">
         <v>2.38</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.56</v>
-      </c>
       <c r="H29" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
         <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S29" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U29" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W29" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
         <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="n">
         <v>16.5</v>
@@ -4396,28 +4396,28 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
         <v>330</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4450,16 +4450,16 @@
         <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
         <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>3.8</v>
@@ -4480,10 +4480,10 @@
         <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
         <v>3.05</v>
@@ -4504,34 +4504,34 @@
         <v>970</v>
       </c>
       <c r="Y30" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Z30" t="n">
         <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB30" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
         <v>970</v>
       </c>
       <c r="AF30" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>970</v>
@@ -4540,16 +4540,16 @@
         <v>120</v>
       </c>
       <c r="AK30" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO30" t="n">
         <v>970</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G31" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
         <v>2.82</v>
@@ -4606,16 +4606,16 @@
         <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P31" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R31" t="n">
         <v>1.25</v>
@@ -4624,7 +4624,7 @@
         <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U31" t="n">
         <v>1.92</v>
@@ -4633,19 +4633,19 @@
         <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
         <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z31" t="n">
         <v>18.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AB31" t="n">
         <v>9.800000000000001</v>
@@ -4669,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
         <v>48</v>
@@ -4678,10 +4678,10 @@
         <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
         <v>40</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G32" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>2.86</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J32" t="n">
         <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>1.37</v>
@@ -4774,10 +4774,10 @@
         <v>18</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AA32" t="n">
         <v>210</v>
@@ -4792,31 +4792,31 @@
         <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AF32" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
         <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
         <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="n">
         <v>21</v>
@@ -4855,7 +4855,7 @@
         <v>1.76</v>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H33" t="n">
         <v>4.8</v>
@@ -4864,7 +4864,7 @@
         <v>5.1</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
         <v>4.5</v>
@@ -4885,7 +4885,7 @@
         <v>2.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R33" t="n">
         <v>1.57</v>
@@ -4900,55 +4900,55 @@
         <v>2.3</v>
       </c>
       <c r="V33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X33" t="n">
         <v>44</v>
       </c>
       <c r="Y33" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="Z33" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AA33" t="n">
         <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="AF33" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
         <v>440</v>
       </c>
       <c r="AJ33" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4990,13 +4990,13 @@
         <v>2.22</v>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H34" t="n">
         <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
         <v>3.65</v>
@@ -5005,94 +5005,94 @@
         <v>3.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="T34" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="U34" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V34" t="n">
         <v>1.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X34" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Y34" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AA34" t="n">
         <v>440</v>
       </c>
       <c r="AB34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI34" t="n">
         <v>970</v>
       </c>
       <c r="AJ34" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
@@ -5146,13 +5146,13 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O35" t="n">
         <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q35" t="n">
         <v>2.04</v>
@@ -5161,34 +5161,34 @@
         <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T35" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z35" t="n">
         <v>36</v>
       </c>
       <c r="AA35" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
@@ -5200,16 +5200,16 @@
         <v>130</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="n">
         <v>21</v>
@@ -5224,10 +5224,10 @@
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5281,16 +5281,16 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R36" t="n">
         <v>1.76</v>
@@ -5299,10 +5299,10 @@
         <v>2.28</v>
       </c>
       <c r="T36" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="U36" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V36" t="n">
         <v>2.3</v>
@@ -5311,16 +5311,16 @@
         <v>1.26</v>
       </c>
       <c r="X36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y36" t="n">
         <v>14</v>
       </c>
       <c r="Z36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="n">
         <v>26</v>
@@ -5338,16 +5338,16 @@
         <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI36" t="n">
         <v>22</v>
       </c>
       <c r="AJ36" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK36" t="n">
         <v>42</v>
@@ -5359,10 +5359,10 @@
         <v>55</v>
       </c>
       <c r="AN36" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="37">
@@ -5566,7 +5566,7 @@
         <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
         <v>1.92</v>
@@ -5590,7 +5590,7 @@
         <v>13</v>
       </c>
       <c r="AA38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB38" t="n">
         <v>14</v>
@@ -5614,7 +5614,7 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ38" t="n">
         <v>290</v>
@@ -5623,7 +5623,7 @@
         <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
         <v>580</v>
@@ -5632,7 +5632,7 @@
         <v>600</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -5674,7 +5674,7 @@
         <v>5.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
         <v>3.4</v>
@@ -5686,10 +5686,10 @@
         <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O39" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P39" t="n">
         <v>1.56</v>
@@ -5710,7 +5710,7 @@
         <v>1.71</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W39" t="n">
         <v>1.94</v>
@@ -5722,7 +5722,7 @@
         <v>26</v>
       </c>
       <c r="Z39" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AA39" t="n">
         <v>340</v>
@@ -5740,7 +5740,7 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
@@ -5752,10 +5752,10 @@
         <v>460</v>
       </c>
       <c r="AJ39" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AL39" t="n">
         <v>460</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
         <v>6.2</v>
       </c>
       <c r="H40" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I40" t="n">
         <v>1.7</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.71</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5815,64 +5815,64 @@
         <v>4.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O40" t="n">
         <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q40" t="n">
         <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T40" t="n">
         <v>2.06</v>
       </c>
       <c r="U40" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W40" t="n">
         <v>1.19</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z40" t="n">
         <v>9</v>
       </c>
       <c r="AA40" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
         <v>8.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF40" t="n">
         <v>46</v>
@@ -5896,13 +5896,13 @@
         <v>100</v>
       </c>
       <c r="AM40" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -5935,13 +5935,13 @@
         <v>2.1</v>
       </c>
       <c r="G41" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I41" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -5998,10 +5998,10 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD41" t="n">
         <v>24</v>
@@ -6034,7 +6034,7 @@
         <v>250</v>
       </c>
       <c r="AN41" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:50:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shamakhi FK</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>27</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.11</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,49 +736,49 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:40:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.28</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.32</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI3" t="n">
         <v>110</v>
       </c>
-      <c r="AB3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AJ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN3" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>27</v>
-      </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,114 +923,114 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:55:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.87</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>1.93</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,117 +1058,117 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:55:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.94</v>
       </c>
       <c r="I5" t="n">
-        <v>2.44</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>2.76</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>17</v>
-      </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Altamura</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.98</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.78</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="X6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF6" t="n">
         <v>14</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>30</v>
-      </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ6" t="n">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Altamura</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Latina</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.68</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X7" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>450</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>460</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>1.96</v>
       </c>
       <c r="I8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.7</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.37</v>
+        <v>1.96</v>
       </c>
       <c r="W8" t="n">
-        <v>1.66</v>
+        <v>1.27</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z8" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>24</v>
       </c>
-      <c r="AA8" t="n">
-        <v>350</v>
-      </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
         <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.44</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z10" t="n">
         <v>18</v>
       </c>
-      <c r="Z10" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AA10" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.84</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.93</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="W11" t="n">
-        <v>2.16</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>38</v>
       </c>
-      <c r="AA11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO11" t="n">
         <v>38</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.96</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>21</v>
       </c>
-      <c r="AG12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H13" t="n">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
         <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
         <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2278,118 +2278,118 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.15</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
         <v>38</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="G15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.98</v>
       </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.5</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>460</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2566,10 +2566,10 @@
         <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
@@ -2596,22 +2596,22 @@
         <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
         <v>20</v>
@@ -2620,16 +2620,16 @@
         <v>36</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
         <v>46</v>
@@ -2638,7 +2638,7 @@
         <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>16.5</v>
@@ -2647,7 +2647,7 @@
         <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>17</v>
@@ -2692,79 +2692,79 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="P17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
         <v>130</v>
@@ -2773,10 +2773,10 @@
         <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2785,7 +2785,7 @@
         <v>200</v>
       </c>
       <c r="AK17" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>260</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>2.66</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.72</v>
+        <v>1.74</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>5.4</v>
+        <v>2.84</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>24</v>
       </c>
-      <c r="AH18" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>400</v>
-      </c>
       <c r="AK18" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>11.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G19" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.51</v>
@@ -2989,31 +2989,31 @@
         <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
         <v>2.44</v>
       </c>
       <c r="U19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V19" t="n">
         <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AC19" t="n">
         <v>42</v>
@@ -3040,10 +3040,10 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -3052,7 +3052,7 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="n">
         <v>80</v>
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.94</v>
       </c>
-      <c r="H20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Z20" t="n">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="AA20" t="n">
-        <v>95</v>
+        <v>370</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>510</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>520</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.53</v>
+        <v>3.35</v>
       </c>
       <c r="G21" t="n">
-        <v>1.59</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>7.6</v>
+        <v>2.26</v>
       </c>
       <c r="I21" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.77</v>
       </c>
       <c r="W21" t="n">
-        <v>2.68</v>
+        <v>1.41</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
-        <v>420</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>80</v>
-      </c>
       <c r="AE21" t="n">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.6</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>48</v>
+        <v>14.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>520</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.4</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>220</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>1.57</v>
       </c>
       <c r="G22" t="n">
-        <v>3.55</v>
+        <v>1.58</v>
       </c>
       <c r="H22" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.22</v>
+        <v>6.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="R22" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.81</v>
+        <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>1.39</v>
+        <v>2.74</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL22" t="n">
         <v>26</v>
       </c>
-      <c r="AG22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>38</v>
-      </c>
       <c r="AM22" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>6.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.57</v>
+        <v>2.52</v>
       </c>
       <c r="G23" t="n">
-        <v>1.59</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>6.6</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>2.68</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO23" t="n">
         <v>28</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.54</v>
+        <v>1.88</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>5.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>2.12</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK24" t="n">
         <v>21</v>
       </c>
-      <c r="AA24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>25</v>
-      </c>
       <c r="AL24" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="J25" t="n">
         <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>3.95</v>
+        <v>2.84</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN25" t="n">
         <v>13</v>
       </c>
-      <c r="Y25" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>16</v>
-      </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U26" t="n">
         <v>2.28</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.24</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="Y26" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>320</v>
+        <v>970</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
         <v>500</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>36</v>
-      </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.6</v>
+        <v>85</v>
       </c>
       <c r="AO26" t="n">
-        <v>300</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U27" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="X27" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,118 +4168,118 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>2.44</v>
       </c>
       <c r="G28" t="n">
-        <v>1.98</v>
+        <v>2.56</v>
       </c>
       <c r="H28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.7</v>
       </c>
-      <c r="I28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="R28" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="S28" t="n">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="T28" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U28" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL28" t="n">
         <v>60</v>
       </c>
-      <c r="AI28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
         <v>970</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S29" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="T29" t="n">
         <v>1.69</v>
       </c>
       <c r="U29" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="X29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH29" t="n">
         <v>18</v>
       </c>
-      <c r="Y29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA29" t="n">
+      <c r="AI29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO29" t="n">
         <v>55</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="G30" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.37</v>
@@ -4471,7 +4471,7 @@
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.27</v>
@@ -4480,79 +4480,79 @@
         <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
         <v>3.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AL30" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="G31" t="n">
-        <v>2.94</v>
+        <v>1.78</v>
       </c>
       <c r="H31" t="n">
-        <v>2.82</v>
+        <v>4.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.88</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.72</v>
+        <v>2.46</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U31" t="n">
         <v>2.3</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="X31" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.800000000000001</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="AA31" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF31" t="n">
         <v>13</v>
       </c>
-      <c r="AE31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>18</v>
-      </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
         <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO31" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="H32" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
         <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="R32" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="S32" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="T32" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X32" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AA32" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="AB32" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL32" t="n">
         <v>70</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>38</v>
-      </c>
       <c r="AM32" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.76</v>
+        <v>2.68</v>
       </c>
       <c r="G33" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
       <c r="H33" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="S33" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="V33" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
       <c r="X33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>44</v>
       </c>
-      <c r="Y33" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z33" t="n">
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
         <v>120</v>
       </c>
-      <c r="AA33" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AN33" t="n">
         <v>34</v>
       </c>
-      <c r="AE33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>440</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AO33" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="G34" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.34</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P34" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="T34" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="W34" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="X34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>21</v>
       </c>
-      <c r="Y34" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>120</v>
-      </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL34" t="n">
         <v>36</v>
       </c>
       <c r="AM34" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="G35" t="n">
-        <v>1.92</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
-        <v>4.9</v>
+        <v>1.75</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>1.76</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>1.92</v>
+        <v>2.78</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="R35" t="n">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="S35" t="n">
-        <v>3.65</v>
+        <v>2.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="V35" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="W35" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="X35" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y35" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y35" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z35" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>700</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>10</v>
-      </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AJ35" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AN35" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>3.25</v>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="H36" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="I36" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,126 +5378,126 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="I37" t="n">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>1.99</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3</v>
+        <v>2.06</v>
       </c>
       <c r="H38" t="n">
-        <v>2.06</v>
+        <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.14</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K38" t="n">
         <v>3.4</v>
       </c>
-      <c r="K38" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L38" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="P38" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="R38" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="V38" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="X38" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="AA38" t="n">
-        <v>27</v>
+        <v>700</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AC38" t="n">
         <v>8</v>
       </c>
       <c r="AD38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>32</v>
-      </c>
       <c r="AG38" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI38" t="n">
-        <v>46</v>
+        <v>700</v>
       </c>
       <c r="AJ38" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AK38" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AM38" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN38" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO38" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.99</v>
+        <v>6.2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.06</v>
+        <v>6.6</v>
       </c>
       <c r="H39" t="n">
-        <v>4.7</v>
+        <v>1.67</v>
       </c>
       <c r="I39" t="n">
-        <v>5.2</v>
+        <v>1.69</v>
       </c>
       <c r="J39" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>2.74</v>
+        <v>3.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="P39" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="S39" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="T39" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U39" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="V39" t="n">
-        <v>1.24</v>
+        <v>2.44</v>
       </c>
       <c r="W39" t="n">
-        <v>1.94</v>
+        <v>1.18</v>
       </c>
       <c r="X39" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>26</v>
+        <v>7.2</v>
       </c>
       <c r="Z39" t="n">
-        <v>170</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA39" t="n">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="AB39" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>75</v>
+        <v>9.6</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF39" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO39" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,260 +5783,125 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>2.14</v>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>2.24</v>
       </c>
       <c r="H40" t="n">
-        <v>1.69</v>
+        <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N40" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="O40" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="P40" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T40" t="n">
         <v>2.14</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U40" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="V40" t="n">
-        <v>2.42</v>
+        <v>1.27</v>
       </c>
       <c r="W40" t="n">
-        <v>1.19</v>
+        <v>1.81</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="Z40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC40" t="n">
         <v>9</v>
       </c>
-      <c r="AA40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD40" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AE40" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI40" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="AK40" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AN40" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AO40" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO41" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:40:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="J2" t="n">
         <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>26</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:55:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>1.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>1.71</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>2.32</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,114 +923,114 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:55:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>2.54</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -1063,118 +1063,118 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Altamura</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>2.44</v>
       </c>
       <c r="G5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="X5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Altamura</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Latina</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.42</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.98</v>
+        <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>960</v>
       </c>
       <c r="AE6" t="n">
-        <v>450</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>460</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="I7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.55</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.96</v>
       </c>
       <c r="W7" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z7" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>23</v>
       </c>
-      <c r="AA7" t="n">
-        <v>70</v>
-      </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="I8" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.35</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
         <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
         <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.75</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.24</v>
       </c>
-      <c r="S9" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>75</v>
-      </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H10" t="n">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
-        <v>9.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI10" t="n">
         <v>40</v>
       </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.85</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="U12" t="n">
         <v>2.08</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>38</v>
       </c>
-      <c r="AA12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>75</v>
-      </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G13" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="G14" t="n">
-        <v>2.98</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>2.94</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF14" t="n">
         <v>13</v>
       </c>
-      <c r="AE14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>18</v>
-      </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.05</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O15" t="n">
         <v>1.52</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>430</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>75</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AK15" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.86</v>
+        <v>2.8</v>
       </c>
       <c r="G16" t="n">
-        <v>1.88</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>2.98</v>
       </c>
       <c r="I16" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>5.2</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="P16" t="n">
-        <v>2.42</v>
+        <v>1.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="n">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="n">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>460</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>2.74</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>2.84</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
         <v>9.6</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
         <v>17.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM17" t="n">
         <v>200</v>
       </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>260</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>11.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.49</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>1.54</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>9.4</v>
       </c>
       <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
         <v>4.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W18" t="n">
         <v>2.84</v>
       </c>
-      <c r="T18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X18" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="H19" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="I19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="X19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>420</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG19" t="n">
         <v>11</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="X19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>40</v>
-      </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>9.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>1.56</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>7.2</v>
+        <v>2.28</v>
       </c>
       <c r="I20" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.41</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.78</v>
-      </c>
       <c r="X20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
         <v>21</v>
       </c>
-      <c r="Y20" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>420</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>370</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>510</v>
-      </c>
       <c r="AF20" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>520</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.6</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.35</v>
+        <v>1.55</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>1.56</v>
       </c>
       <c r="H21" t="n">
-        <v>2.26</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>1.41</v>
+        <v>2.78</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>25</v>
-      </c>
       <c r="AG21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>60</v>
-      </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>6.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.57</v>
+        <v>2.54</v>
       </c>
       <c r="G22" t="n">
-        <v>1.58</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.64</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.74</v>
-      </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>28</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>5.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.29</v>
       </c>
-      <c r="P23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.42</v>
-      </c>
       <c r="S23" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>21</v>
       </c>
-      <c r="AA23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>25</v>
-      </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="H24" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>1.8</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>1.29</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="U24" t="n">
-        <v>1.86</v>
+        <v>2.56</v>
       </c>
       <c r="V24" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AA24" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U25" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X25" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y25" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="AA25" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
         <v>970</v>
       </c>
       <c r="AJ25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="G26" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R26" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="T26" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U26" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="W26" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="X26" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
         <v>70</v>
       </c>
-      <c r="AG26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN26" t="n">
-        <v>85</v>
+        <v>14.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G27" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H27" t="n">
         <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="U27" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="V27" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
         <v>36</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.44</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>2.56</v>
+        <v>1.71</v>
       </c>
       <c r="H28" t="n">
-        <v>2.92</v>
+        <v>4.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="R28" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="T28" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U28" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X28" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK28" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO28" t="n">
         <v>55</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="G29" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>2.82</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>2.94</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="R29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.51</v>
       </c>
-      <c r="S29" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W29" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="X29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN29" t="n">
         <v>20</v>
       </c>
-      <c r="Y29" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="G30" t="n">
-        <v>2.62</v>
+        <v>1.78</v>
       </c>
       <c r="H30" t="n">
-        <v>2.76</v>
+        <v>4.8</v>
       </c>
       <c r="I30" t="n">
-        <v>2.92</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="n">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="T30" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V30" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="W30" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AA30" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
         <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
         <v>13</v>
       </c>
-      <c r="AE30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.75</v>
+        <v>2.24</v>
       </c>
       <c r="G31" t="n">
-        <v>1.78</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R31" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S31" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="V31" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="W31" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="n">
         <v>34</v>
       </c>
-      <c r="Z31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>55</v>
-      </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AK31" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AM31" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AO31" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.24</v>
+        <v>2.7</v>
       </c>
       <c r="G32" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>2.38</v>
+        <v>1.77</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.56</v>
       </c>
-      <c r="S32" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.68</v>
+        <v>1.87</v>
       </c>
       <c r="G33" t="n">
-        <v>2.78</v>
+        <v>1.88</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="T33" t="n">
         <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="X33" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AE33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG33" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AH33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN33" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE33" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>34</v>
-      </c>
       <c r="AO33" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.89</v>
+        <v>4.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
-        <v>4.9</v>
+        <v>1.78</v>
       </c>
       <c r="I34" t="n">
-        <v>5.1</v>
+        <v>1.79</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>1.94</v>
+        <v>2.82</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="R34" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
-        <v>3.65</v>
+        <v>2.34</v>
       </c>
       <c r="T34" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="W34" t="n">
-        <v>2.1</v>
+        <v>1.26</v>
       </c>
       <c r="X34" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z34" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>36</v>
-      </c>
       <c r="AA34" t="n">
-        <v>120</v>
+        <v>18.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.6</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AK34" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AL34" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="AN34" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AO34" t="n">
-        <v>90</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="H35" t="n">
-        <v>1.75</v>
+        <v>2.48</v>
       </c>
       <c r="I35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P35" t="n">
         <v>1.76</v>
       </c>
-      <c r="J35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.78</v>
-      </c>
       <c r="Q35" t="n">
-        <v>1.55</v>
+        <v>2.24</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="S35" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="U35" t="n">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>2.3</v>
+        <v>1.64</v>
       </c>
       <c r="W35" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>27</v>
+        <v>11.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG35" t="n">
         <v>15</v>
       </c>
-      <c r="AF35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH35" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AJ35" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="n">
         <v>44</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO35" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,126 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="I36" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>2.04</v>
       </c>
       <c r="G37" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.06</v>
+        <v>4.6</v>
       </c>
       <c r="I37" t="n">
-        <v>2.14</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N37" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="O37" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="P37" t="n">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="R37" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="S37" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="U37" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="V37" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="AA37" t="n">
-        <v>27</v>
+        <v>700</v>
       </c>
       <c r="AB37" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>32</v>
-      </c>
       <c r="AG37" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
       <c r="AJ37" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AK37" t="n">
         <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AM37" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN37" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="AO37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.99</v>
+        <v>6.2</v>
       </c>
       <c r="G38" t="n">
-        <v>2.06</v>
+        <v>6.6</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>1.69</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="M38" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>2.74</v>
+        <v>3.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="R38" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="S38" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="T38" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U38" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="W38" t="n">
-        <v>1.94</v>
+        <v>1.18</v>
       </c>
       <c r="X38" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z38" t="n">
-        <v>170</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA38" t="n">
-        <v>700</v>
+        <v>16</v>
       </c>
       <c r="AB38" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>44</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO38" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>500</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,260 +5648,125 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.2</v>
+        <v>2.14</v>
       </c>
       <c r="G39" t="n">
-        <v>6.6</v>
+        <v>2.22</v>
       </c>
       <c r="H39" t="n">
-        <v>1.67</v>
+        <v>4.2</v>
       </c>
       <c r="I39" t="n">
-        <v>1.69</v>
+        <v>4.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N39" t="n">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="O39" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="P39" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2.78</v>
       </c>
       <c r="R39" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="S39" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="T39" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
-        <v>2.44</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>1.18</v>
+        <v>1.81</v>
       </c>
       <c r="X39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y39" t="n">
         <v>13</v>
       </c>
-      <c r="Y39" t="n">
-        <v>7.2</v>
-      </c>
       <c r="Z39" t="n">
-        <v>8.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="AE39" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>48</v>
+        <v>14.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI39" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="AK39" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AN39" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO40" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="I2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.800000000000001</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>4.7</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.89</v>
+        <v>1.09</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.3</v>
+        <v>850</v>
       </c>
       <c r="AG2" t="n">
-        <v>740</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:55:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Altamura</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>1.06</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>1.08</v>
       </c>
       <c r="H3" t="n">
-        <v>2.28</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>1.71</v>
+        <v>1.09</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>1.11</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,88 +928,88 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.48</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>600</v>
       </c>
       <c r="L4" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.54</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>1.66</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,16 +1018,16 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Altamura</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Latina</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.44</v>
+        <v>150</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>100</v>
       </c>
       <c r="W5" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.32</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>1.47</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.92</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>3.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7</v>
+        <v>1.08</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>6.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>960</v>
+        <v>8.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>70</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
-        <v>1.98</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.04</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.6</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>9.4</v>
       </c>
-      <c r="AE7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>18</v>
-      </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>75</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="n">
         <v>26</v>
       </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>75</v>
-      </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>2.76</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.44</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.12</v>
-      </c>
       <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
         <v>14</v>
       </c>
-      <c r="Y9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.5</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G10" t="n">
         <v>2.96</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="V10" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
         <v>1.51</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Z10" t="n">
         <v>17.5</v>
       </c>
       <c r="AA10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
         <v>38</v>
       </c>
-      <c r="AB10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>28</v>
-      </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK10" t="n">
         <v>40</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="n">
         <v>44</v>
       </c>
-      <c r="AK10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>26</v>
-      </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.92</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.98</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.05</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.05</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.64</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>1.84</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>2.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>20</v>
       </c>
-      <c r="AA12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AK12" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>30</v>
-      </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.94</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>2.98</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.05</v>
       </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
         <v>18</v>
       </c>
-      <c r="AA13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13</v>
-      </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>9.6</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>11.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>2.68</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="G15" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.74</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.52</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>5.1</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="X15" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB15" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN15" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H16" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>1.58</v>
@@ -2584,13 +2584,13 @@
         <v>2.74</v>
       </c>
       <c r="O16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R16" t="n">
         <v>1.2</v>
@@ -2599,70 +2599,70 @@
         <v>5.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="U16" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>26</v>
       </c>
-      <c r="AG16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>85</v>
       </c>
-      <c r="AI16" t="n">
-        <v>300</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO16" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>2.74</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>48</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="AA17" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="AF17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>520</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>14</v>
       </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>24</v>
-      </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.49</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>9.4</v>
+        <v>2.32</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>2.34</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="T18" t="n">
-        <v>2.42</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>2.84</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.8</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN18" t="n">
         <v>23</v>
       </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G19" t="n">
         <v>1.56</v>
       </c>
       <c r="H19" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I19" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W19" t="n">
         <v>2.78</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="AA19" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AH19" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AE20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AO20" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>2.64</v>
+        <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AA21" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN21" t="n">
         <v>14</v>
       </c>
-      <c r="AL21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.89</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AA22" t="n">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
         <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
         <v>5.5</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.4</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>1.59</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.86</v>
+        <v>2.46</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19.5</v>
+        <v>160</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish League One</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,118 +3628,118 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Peterhead</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>36</v>
       </c>
-      <c r="Y24" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AF24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK24" t="n">
         <v>25</v>
       </c>
-      <c r="AE24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>19</v>
-      </c>
       <c r="AL24" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.85</v>
       </c>
-      <c r="K25" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="S25" t="n">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="U25" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>32</v>
       </c>
-      <c r="AE25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM25" t="n">
         <v>70</v>
       </c>
-      <c r="AG25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN25" t="n">
-        <v>85</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish League One</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.24</v>
+        <v>1.7</v>
       </c>
       <c r="G26" t="n">
-        <v>2.36</v>
+        <v>1.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -3937,82 +3937,82 @@
         <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q26" t="n">
         <v>1.68</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
         <v>2.76</v>
       </c>
       <c r="T26" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="V26" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="X26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
         <v>21</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AE26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK26" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>24</v>
-      </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4033,82 +4033,82 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="G27" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
         <v>1.79</v>
       </c>
       <c r="R27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>8.4</v>
@@ -4117,10 +4117,10 @@
         <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
         <v>12</v>
@@ -4129,25 +4129,25 @@
         <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO27" t="n">
         <v>23</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
         <v>4.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="T28" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U28" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z28" t="n">
         <v>44</v>
       </c>
-      <c r="Z28" t="n">
-        <v>100</v>
-      </c>
       <c r="AA28" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -4303,118 +4303,118 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.52</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R29" t="n">
+      <c r="V29" t="n">
         <v>1.44</v>
       </c>
-      <c r="S29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.51</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="n">
         <v>13</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI29" t="n">
         <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>24</v>
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.72</v>
+        <v>2.68</v>
       </c>
       <c r="G30" t="n">
-        <v>1.78</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4.8</v>
+        <v>2.94</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>3.05</v>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S30" t="n">
         <v>4.5</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="V30" t="n">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="W30" t="n">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>65</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>65</v>
+        <v>18.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AB30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AH30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
         <v>55</v>
       </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>28</v>
-      </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="I31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S31" t="n">
         <v>3.4</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.74</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z31" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL31" t="n">
         <v>34</v>
       </c>
-      <c r="AF31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>70</v>
-      </c>
       <c r="AM31" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="G32" t="n">
-        <v>2.76</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>2.94</v>
+        <v>1.78</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>1.77</v>
+        <v>2.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="V32" t="n">
-        <v>1.49</v>
+        <v>2.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="X32" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA32" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA32" t="n">
-        <v>50</v>
-      </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AE32" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="n">
         <v>55</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AN32" t="n">
         <v>44</v>
       </c>
-      <c r="AK32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>34</v>
-      </c>
       <c r="AO32" t="n">
-        <v>40</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>1.88</v>
+        <v>3.45</v>
       </c>
       <c r="H33" t="n">
-        <v>5.1</v>
+        <v>2.44</v>
       </c>
       <c r="I33" t="n">
-        <v>5.2</v>
+        <v>2.52</v>
       </c>
       <c r="J33" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P33" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U33" t="n">
         <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="W33" t="n">
-        <v>2.14</v>
+        <v>1.4</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA33" t="n">
         <v>36</v>
       </c>
-      <c r="AA33" t="n">
-        <v>150</v>
-      </c>
       <c r="AB33" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AF33" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN33" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AO33" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="I34" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="P34" t="n">
-        <v>2.82</v>
+        <v>1.98</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="R34" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="S34" t="n">
-        <v>2.34</v>
+        <v>3.6</v>
       </c>
       <c r="T34" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="U34" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="W34" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="X34" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Y34" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA34" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AG34" t="n">
         <v>17</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AK34" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="AM34" t="n">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="G35" t="n">
-        <v>3.45</v>
+        <v>2.08</v>
       </c>
       <c r="H35" t="n">
-        <v>2.48</v>
+        <v>4.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.56</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>2.68</v>
       </c>
       <c r="O35" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="P35" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.24</v>
+        <v>2.76</v>
       </c>
       <c r="R35" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="X35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>700</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF35" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB35" t="n">
+      <c r="AG35" t="n">
         <v>12</v>
       </c>
-      <c r="AC35" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>15</v>
-      </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="n">
-        <v>48</v>
+        <v>700</v>
       </c>
       <c r="AJ35" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN35" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AO35" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,126 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="G36" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="H36" t="n">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="I36" t="n">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="U36" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="V36" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="W36" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
       </c>
       <c r="Y36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC36" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8</v>
-      </c>
       <c r="AD36" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO36" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>290</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -5378,395 +5378,125 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="H37" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.58</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.55</v>
-      </c>
       <c r="P37" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="R37" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="X37" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AI37" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AN37" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>EC Vitoria Salvador</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Flamengo</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Atletico Bucaramanga</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO39" t="n">
         <v>1000</v>
       </c>
     </row>
